--- a/Median_CPI_Level.xlsx
+++ b/Median_CPI_Level.xlsx
@@ -7,7 +7,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Mean_Level" sheetId="1" r:id="rId1"/>
+    <sheet name="Median_Level" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -253,7 +253,7 @@
     <col min="6" max="6" width="7.63" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.63" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.63" bestFit="1" customWidth="1"/>
   </cols>
@@ -2086,28 +2086,28 @@
         <v>3.0000</v>
       </c>
       <c r="C53" s="4">
-        <v>7.7069</v>
+        <v>7.5000</v>
       </c>
       <c r="D53" s="4">
-        <v>9.2156</v>
+        <v>9.3500</v>
       </c>
       <c r="E53" s="4">
-        <v>7.9281</v>
+        <v>8.0000</v>
       </c>
       <c r="F53" s="4">
-        <v>7.7594</v>
+        <v>7.9500</v>
       </c>
       <c r="G53" s="4">
-        <v>7.6094</v>
+        <v>7.5500</v>
       </c>
       <c r="H53" s="4">
-        <v>7.7250</v>
+        <v>7.8000</v>
       </c>
       <c r="I53" s="4">
-        <v>9.6613</v>
+        <v>10.0000</v>
       </c>
       <c r="J53" s="4">
-        <v>8.0194</v>
+        <v>7.9000</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>11</v>
@@ -2121,28 +2121,28 @@
         <v>4.0000</v>
       </c>
       <c r="C54" s="4">
-        <v>10.7316</v>
+        <v>11.7000</v>
       </c>
       <c r="D54" s="4">
-        <v>8.9525</v>
+        <v>9.6000</v>
       </c>
       <c r="E54" s="4">
-        <v>7.7590</v>
+        <v>7.8000</v>
       </c>
       <c r="F54" s="4">
-        <v>7.5564</v>
+        <v>7.5000</v>
       </c>
       <c r="G54" s="4">
-        <v>7.7103</v>
+        <v>7.5000</v>
       </c>
       <c r="H54" s="4">
-        <v>7.9256</v>
+        <v>8.0000</v>
       </c>
       <c r="I54" s="4">
-        <v>9.9324</v>
+        <v>10.5000</v>
       </c>
       <c r="J54" s="4">
-        <v>8.7514</v>
+        <v>8.5000</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>11</v>
@@ -2156,28 +2156,28 @@
         <v>1.0000</v>
       </c>
       <c r="C55" s="4">
-        <v>6.3645</v>
+        <v>7.5000</v>
       </c>
       <c r="D55" s="4">
-        <v>5.5062</v>
+        <v>6.0000</v>
       </c>
       <c r="E55" s="4">
-        <v>6.0781</v>
+        <v>6.3000</v>
       </c>
       <c r="F55" s="4">
-        <v>6.5687</v>
+        <v>6.7000</v>
       </c>
       <c r="G55" s="4">
-        <v>6.3750</v>
+        <v>6.8000</v>
       </c>
       <c r="H55" s="4">
-        <v>6.4821</v>
+        <v>6.7000</v>
       </c>
       <c r="I55" s="4">
-        <v>7.0903</v>
+        <v>7.0000</v>
       </c>
       <c r="J55" s="4">
-        <v>6.7667</v>
+        <v>6.8000</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>11</v>
@@ -2191,28 +2191,28 @@
         <v>2.0000</v>
       </c>
       <c r="C56" s="4">
-        <v>3.5382</v>
+        <v>3.2000</v>
       </c>
       <c r="D56" s="4">
-        <v>3.6917</v>
+        <v>3.4000</v>
       </c>
       <c r="E56" s="4">
-        <v>5.7686</v>
+        <v>5.9000</v>
       </c>
       <c r="F56" s="4">
-        <v>5.8667</v>
+        <v>6.0000</v>
       </c>
       <c r="G56" s="4">
-        <v>5.8694</v>
+        <v>6.2500</v>
       </c>
       <c r="H56" s="4">
-        <v>5.5444</v>
+        <v>6.0000</v>
       </c>
       <c r="I56" s="4">
-        <v>5.5545</v>
+        <v>5.7000</v>
       </c>
       <c r="J56" s="4">
-        <v>5.4839</v>
+        <v>5.9000</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>11</v>
@@ -2226,28 +2226,28 @@
         <v>3.0000</v>
       </c>
       <c r="C57" s="4">
-        <v>5.3343</v>
+        <v>4.7000</v>
       </c>
       <c r="D57" s="4">
-        <v>7.1162</v>
+        <v>7.5000</v>
       </c>
       <c r="E57" s="4">
-        <v>5.3973</v>
+        <v>5.8000</v>
       </c>
       <c r="F57" s="4">
-        <v>5.7000</v>
+        <v>6.1000</v>
       </c>
       <c r="G57" s="4">
-        <v>5.6757</v>
+        <v>6.0000</v>
       </c>
       <c r="H57" s="4">
-        <v>5.9500</v>
+        <v>6.0000</v>
       </c>
       <c r="I57" s="4">
-        <v>6.2444</v>
+        <v>6.3000</v>
       </c>
       <c r="J57" s="4">
-        <v>6.0194</v>
+        <v>6.2000</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>11</v>
@@ -2261,28 +2261,28 @@
         <v>4.0000</v>
       </c>
       <c r="C58" s="4">
-        <v>7.2793</v>
+        <v>7.6000</v>
       </c>
       <c r="D58" s="4">
-        <v>3.9677</v>
+        <v>4.0000</v>
       </c>
       <c r="E58" s="4">
-        <v>5.2839</v>
+        <v>5.0000</v>
       </c>
       <c r="F58" s="4">
-        <v>5.5290</v>
+        <v>5.5000</v>
       </c>
       <c r="G58" s="4">
-        <v>5.5387</v>
+        <v>5.5000</v>
       </c>
       <c r="H58" s="4">
-        <v>5.6742</v>
+        <v>6.0000</v>
       </c>
       <c r="I58" s="4">
-        <v>6.2345</v>
+        <v>6.2000</v>
       </c>
       <c r="J58" s="4">
-        <v>5.4433</v>
+        <v>5.2500</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>11</v>
@@ -2296,28 +2296,28 @@
         <v>1.0000</v>
       </c>
       <c r="C59" s="4">
-        <v>1.7206</v>
+        <v>2.6000</v>
       </c>
       <c r="D59" s="4">
-        <v>2.5629</v>
+        <v>2.9000</v>
       </c>
       <c r="E59" s="4">
-        <v>3.8571</v>
+        <v>4.2000</v>
       </c>
       <c r="F59" s="4">
-        <v>4.1486</v>
+        <v>4.3000</v>
       </c>
       <c r="G59" s="4">
-        <v>4.3857</v>
+        <v>4.6000</v>
       </c>
       <c r="H59" s="4">
-        <v>4.2355</v>
+        <v>5.0000</v>
       </c>
       <c r="I59" s="4">
-        <v>4.0265</v>
+        <v>4.2000</v>
       </c>
       <c r="J59" s="4">
-        <v>4.6467</v>
+        <v>5.2500</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>11</v>
@@ -2331,28 +2331,28 @@
         <v>2.0000</v>
       </c>
       <c r="C60" s="4">
-        <v>-0.2486</v>
+        <v>-0.4000</v>
       </c>
       <c r="D60" s="4">
-        <v>3.6629</v>
+        <v>4.0000</v>
       </c>
       <c r="E60" s="4">
-        <v>4.1714</v>
+        <v>4.5000</v>
       </c>
       <c r="F60" s="4">
-        <v>4.4143</v>
+        <v>4.6000</v>
       </c>
       <c r="G60" s="4">
-        <v>4.5515</v>
+        <v>4.9000</v>
       </c>
       <c r="H60" s="4">
-        <v>4.4824</v>
+        <v>4.9000</v>
       </c>
       <c r="I60" s="4">
-        <v>3.1187</v>
+        <v>3.2000</v>
       </c>
       <c r="J60" s="4">
-        <v>4.6719</v>
+        <v>4.9000</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>11</v>
@@ -2366,28 +2366,28 @@
         <v>3.0000</v>
       </c>
       <c r="C61" s="4">
-        <v>3.8250</v>
+        <v>4.2000</v>
       </c>
       <c r="D61" s="4">
-        <v>4.0138</v>
+        <v>4.5000</v>
       </c>
       <c r="E61" s="4">
-        <v>4.4000</v>
+        <v>4.5500</v>
       </c>
       <c r="F61" s="4">
-        <v>4.1724</v>
+        <v>4.6000</v>
       </c>
       <c r="G61" s="4">
-        <v>4.2862</v>
+        <v>4.5000</v>
       </c>
       <c r="H61" s="4">
-        <v>4.4172</v>
+        <v>4.5000</v>
       </c>
       <c r="I61" s="4">
-        <v>3.4111</v>
+        <v>3.2000</v>
       </c>
       <c r="J61" s="4">
-        <v>4.5963</v>
+        <v>4.5000</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>11</v>
@@ -2401,28 +2401,28 @@
         <v>4.0000</v>
       </c>
       <c r="C62" s="4">
-        <v>4.4161</v>
+        <v>4.7000</v>
       </c>
       <c r="D62" s="4">
-        <v>4.8258</v>
+        <v>5.0000</v>
       </c>
       <c r="E62" s="4">
-        <v>4.7581</v>
+        <v>5.0000</v>
       </c>
       <c r="F62" s="4">
-        <v>4.7645</v>
+        <v>5.0000</v>
       </c>
       <c r="G62" s="4">
-        <v>4.9774</v>
+        <v>5.1000</v>
       </c>
       <c r="H62" s="4">
-        <v>5.1742</v>
+        <v>5.5000</v>
       </c>
       <c r="I62" s="4">
-        <v>3.4033</v>
+        <v>3.3000</v>
       </c>
       <c r="J62" s="4">
-        <v>4.8033</v>
+        <v>5.0000</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>11</v>
@@ -2436,28 +2436,28 @@
         <v>1.0000</v>
       </c>
       <c r="C63" s="4">
-        <v>3.8552</v>
+        <v>4.1000</v>
       </c>
       <c r="D63" s="4">
-        <v>3.8000</v>
+        <v>4.2000</v>
       </c>
       <c r="E63" s="4">
-        <v>3.9933</v>
+        <v>4.4000</v>
       </c>
       <c r="F63" s="4">
-        <v>4.4100</v>
+        <v>4.8500</v>
       </c>
       <c r="G63" s="4">
-        <v>4.5033</v>
+        <v>4.8000</v>
       </c>
       <c r="H63" s="4">
-        <v>4.4786</v>
+        <v>5.2000</v>
       </c>
       <c r="I63" s="4">
-        <v>4.4148</v>
+        <v>4.5000</v>
       </c>
       <c r="J63" s="4">
-        <v>4.8783</v>
+        <v>5.5000</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>11</v>
@@ -2471,28 +2471,28 @@
         <v>2.0000</v>
       </c>
       <c r="C64" s="4">
-        <v>4.2548</v>
+        <v>4.8000</v>
       </c>
       <c r="D64" s="4">
-        <v>4.2750</v>
+        <v>4.4000</v>
       </c>
       <c r="E64" s="4">
-        <v>4.6437</v>
+        <v>5.0000</v>
       </c>
       <c r="F64" s="4">
-        <v>4.9781</v>
+        <v>5.2500</v>
       </c>
       <c r="G64" s="4">
-        <v>5.1281</v>
+        <v>5.3000</v>
       </c>
       <c r="H64" s="4">
-        <v>5.2969</v>
+        <v>5.6500</v>
       </c>
       <c r="I64" s="4">
-        <v>4.4767</v>
+        <v>4.6000</v>
       </c>
       <c r="J64" s="4">
-        <v>5.3310</v>
+        <v>5.6000</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>11</v>
@@ -2506,28 +2506,28 @@
         <v>3.0000</v>
       </c>
       <c r="C65" s="4">
-        <v>3.7040</v>
+        <v>3.7000</v>
       </c>
       <c r="D65" s="4">
-        <v>3.6769</v>
+        <v>3.7000</v>
       </c>
       <c r="E65" s="4">
-        <v>4.4769</v>
+        <v>4.4000</v>
       </c>
       <c r="F65" s="4">
-        <v>5.0038</v>
+        <v>4.9000</v>
       </c>
       <c r="G65" s="4">
-        <v>5.2769</v>
+        <v>5.2000</v>
       </c>
       <c r="H65" s="4">
-        <v>5.4654</v>
+        <v>5.3000</v>
       </c>
       <c r="I65" s="4">
-        <v>4.1880</v>
+        <v>4.3000</v>
       </c>
       <c r="J65" s="4">
-        <v>4.9125</v>
+        <v>4.7500</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>11</v>
@@ -2541,28 +2541,28 @@
         <v>4.0000</v>
       </c>
       <c r="C66" s="4">
-        <v>3.8000</v>
+        <v>3.6000</v>
       </c>
       <c r="D66" s="4">
-        <v>3.9800</v>
+        <v>4.0000</v>
       </c>
       <c r="E66" s="4">
-        <v>4.2480</v>
+        <v>4.1000</v>
       </c>
       <c r="F66" s="4">
-        <v>4.2625</v>
+        <v>4.3000</v>
       </c>
       <c r="G66" s="4">
-        <v>4.6280</v>
+        <v>4.6000</v>
       </c>
       <c r="H66" s="4">
-        <v>4.8680</v>
+        <v>4.7000</v>
       </c>
       <c r="I66" s="4">
-        <v>4.2000</v>
+        <v>4.3000</v>
       </c>
       <c r="J66" s="4">
-        <v>4.4040</v>
+        <v>4.3000</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>11</v>
@@ -2576,28 +2576,28 @@
         <v>1.0000</v>
       </c>
       <c r="C67" s="4">
-        <v>3.2417</v>
+        <v>3.1000</v>
       </c>
       <c r="D67" s="4">
-        <v>3.2417</v>
+        <v>3.3500</v>
       </c>
       <c r="E67" s="4">
-        <v>3.6083</v>
+        <v>3.6000</v>
       </c>
       <c r="F67" s="4">
-        <v>3.8792</v>
+        <v>4.0000</v>
       </c>
       <c r="G67" s="4">
-        <v>4.1667</v>
+        <v>4.2000</v>
       </c>
       <c r="H67" s="4">
-        <v>4.4182</v>
+        <v>4.7000</v>
       </c>
       <c r="I67" s="4">
-        <v>3.8524</v>
+        <v>4.2000</v>
       </c>
       <c r="J67" s="4">
-        <v>3.5609</v>
+        <v>3.6000</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>11</v>
@@ -2611,28 +2611,28 @@
         <v>2.0000</v>
       </c>
       <c r="C68" s="4">
-        <v>3.1960</v>
+        <v>3.2000</v>
       </c>
       <c r="D68" s="4">
-        <v>4.0400</v>
+        <v>4.0000</v>
       </c>
       <c r="E68" s="4">
-        <v>4.0320</v>
+        <v>4.0000</v>
       </c>
       <c r="F68" s="4">
-        <v>4.2440</v>
+        <v>4.3000</v>
       </c>
       <c r="G68" s="4">
-        <v>4.5417</v>
+        <v>4.6500</v>
       </c>
       <c r="H68" s="4">
-        <v>4.6458</v>
+        <v>4.4500</v>
       </c>
       <c r="I68" s="4">
-        <v>3.7250</v>
+        <v>3.7000</v>
       </c>
       <c r="J68" s="4">
-        <v>4.4000</v>
+        <v>4.3000</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>11</v>
@@ -2646,28 +2646,28 @@
         <v>3.0000</v>
       </c>
       <c r="C69" s="4">
-        <v>4.0621</v>
+        <v>4.2000</v>
       </c>
       <c r="D69" s="4">
-        <v>3.5241</v>
+        <v>3.5000</v>
       </c>
       <c r="E69" s="4">
-        <v>3.9310</v>
+        <v>3.9000</v>
       </c>
       <c r="F69" s="4">
-        <v>4.2966</v>
+        <v>4.2000</v>
       </c>
       <c r="G69" s="4">
-        <v>4.5310</v>
+        <v>4.4000</v>
       </c>
       <c r="H69" s="4">
-        <v>4.6679</v>
+        <v>4.5000</v>
       </c>
       <c r="I69" s="4">
-        <v>3.6556</v>
+        <v>3.7000</v>
       </c>
       <c r="J69" s="4">
-        <v>4.2000</v>
+        <v>4.1000</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>11</v>
@@ -2681,28 +2681,28 @@
         <v>4.0000</v>
       </c>
       <c r="C70" s="4">
-        <v>2.5696</v>
+        <v>2.4000</v>
       </c>
       <c r="D70" s="4">
-        <v>3.1739</v>
+        <v>3.2000</v>
       </c>
       <c r="E70" s="4">
-        <v>3.5652</v>
+        <v>3.5000</v>
       </c>
       <c r="F70" s="4">
-        <v>3.7261</v>
+        <v>3.7000</v>
       </c>
       <c r="G70" s="4">
-        <v>3.9087</v>
+        <v>4.0000</v>
       </c>
       <c r="H70" s="4">
-        <v>4.1087</v>
+        <v>4.2000</v>
       </c>
       <c r="I70" s="4">
-        <v>3.3905</v>
+        <v>3.4000</v>
       </c>
       <c r="J70" s="4">
-        <v>3.6905</v>
+        <v>3.6000</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>11</v>
@@ -2716,28 +2716,28 @@
         <v>1.0000</v>
       </c>
       <c r="C71" s="4">
-        <v>3.8792</v>
+        <v>4.1000</v>
       </c>
       <c r="D71" s="4">
-        <v>3.0875</v>
+        <v>3.2000</v>
       </c>
       <c r="E71" s="4">
-        <v>3.1292</v>
+        <v>3.2000</v>
       </c>
       <c r="F71" s="4">
-        <v>3.4583</v>
+        <v>3.5000</v>
       </c>
       <c r="G71" s="4">
-        <v>3.7958</v>
+        <v>3.6500</v>
       </c>
       <c r="H71" s="4">
-        <v>4.1500</v>
+        <v>4.0000</v>
       </c>
       <c r="I71" s="4">
-        <v>3.4455</v>
+        <v>3.5000</v>
       </c>
       <c r="J71" s="4">
-        <v>3.2792</v>
+        <v>3.3000</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>11</v>
@@ -2751,28 +2751,28 @@
         <v>2.0000</v>
       </c>
       <c r="C72" s="4">
-        <v>1.1556</v>
+        <v>1.4000</v>
       </c>
       <c r="D72" s="4">
-        <v>-0.2167</v>
+        <v>-0.6000</v>
       </c>
       <c r="E72" s="4">
-        <v>2.2037</v>
+        <v>2.6000</v>
       </c>
       <c r="F72" s="4">
-        <v>3.2444</v>
+        <v>3.4000</v>
       </c>
       <c r="G72" s="4">
-        <v>3.6889</v>
+        <v>3.7000</v>
       </c>
       <c r="H72" s="4">
-        <v>3.7423</v>
+        <v>3.9500</v>
       </c>
       <c r="I72" s="4">
-        <v>2.0440</v>
+        <v>2.0000</v>
       </c>
       <c r="J72" s="4">
-        <v>3.4040</v>
+        <v>3.3000</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>11</v>
@@ -2786,28 +2786,28 @@
         <v>3.0000</v>
       </c>
       <c r="C73" s="4">
-        <v>-0.5696</v>
+        <v>-1.7000</v>
       </c>
       <c r="D73" s="4">
-        <v>2.7783</v>
+        <v>2.9000</v>
       </c>
       <c r="E73" s="4">
-        <v>3.4227</v>
+        <v>3.3000</v>
       </c>
       <c r="F73" s="4">
-        <v>3.2783</v>
+        <v>3.5000</v>
       </c>
       <c r="G73" s="4">
-        <v>3.3435</v>
+        <v>3.5000</v>
       </c>
       <c r="H73" s="4">
-        <v>3.5304</v>
+        <v>3.7000</v>
       </c>
       <c r="I73" s="4">
-        <v>2.2318</v>
+        <v>2.0000</v>
       </c>
       <c r="J73" s="4">
-        <v>3.1957</v>
+        <v>3.3000</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>11</v>
@@ -2821,28 +2821,28 @@
         <v>4.0000</v>
       </c>
       <c r="C74" s="4">
-        <v>2.7300</v>
+        <v>2.6000</v>
       </c>
       <c r="D74" s="4">
-        <v>3.0400</v>
+        <v>3.0500</v>
       </c>
       <c r="E74" s="4">
-        <v>3.2900</v>
+        <v>3.3500</v>
       </c>
       <c r="F74" s="4">
-        <v>3.4950</v>
+        <v>3.5000</v>
       </c>
       <c r="G74" s="4">
-        <v>3.7250</v>
+        <v>3.7500</v>
       </c>
       <c r="H74" s="4">
-        <v>3.8950</v>
+        <v>3.9000</v>
       </c>
       <c r="I74" s="4">
-        <v>2.2550</v>
+        <v>2.0000</v>
       </c>
       <c r="J74" s="4">
-        <v>3.2667</v>
+        <v>3.3000</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>11</v>
@@ -2856,28 +2856,28 @@
         <v>1.0000</v>
       </c>
       <c r="C75" s="4">
-        <v>2.5200</v>
+        <v>2.8000</v>
       </c>
       <c r="D75" s="4">
-        <v>3.3429</v>
+        <v>3.3000</v>
       </c>
       <c r="E75" s="4">
-        <v>3.4952</v>
+        <v>3.5000</v>
       </c>
       <c r="F75" s="4">
-        <v>3.6905</v>
+        <v>4.0000</v>
       </c>
       <c r="G75" s="4">
-        <v>3.8095</v>
+        <v>4.1000</v>
       </c>
       <c r="H75" s="4">
-        <v>3.7450</v>
+        <v>4.0000</v>
       </c>
       <c r="I75" s="4">
-        <v>3.1952</v>
+        <v>3.3000</v>
       </c>
       <c r="J75" s="4">
-        <v>3.9714</v>
+        <v>4.0000</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>11</v>
@@ -2891,28 +2891,28 @@
         <v>2.0000</v>
       </c>
       <c r="C76" s="4">
-        <v>4.6429</v>
+        <v>5.3000</v>
       </c>
       <c r="D76" s="4">
-        <v>4.3464</v>
+        <v>4.2500</v>
       </c>
       <c r="E76" s="4">
-        <v>4.2536</v>
+        <v>4.3500</v>
       </c>
       <c r="F76" s="4">
-        <v>4.2929</v>
+        <v>4.4000</v>
       </c>
       <c r="G76" s="4">
-        <v>4.3429</v>
+        <v>4.2500</v>
       </c>
       <c r="H76" s="4">
-        <v>4.4071</v>
+        <v>4.4500</v>
       </c>
       <c r="I76" s="4">
-        <v>3.9500</v>
+        <v>3.8000</v>
       </c>
       <c r="J76" s="4">
-        <v>4.3556</v>
+        <v>4.5000</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>11</v>
@@ -2926,25 +2926,25 @@
         <v>3.0000</v>
       </c>
       <c r="C77" s="4">
-        <v>4.7000</v>
+        <v>4.9000</v>
       </c>
       <c r="D77" s="4">
-        <v>4.2286</v>
+        <v>4.0000</v>
       </c>
       <c r="E77" s="4">
-        <v>4.3762</v>
+        <v>4.3000</v>
       </c>
       <c r="F77" s="4">
-        <v>4.5952</v>
+        <v>4.6000</v>
       </c>
       <c r="G77" s="4">
-        <v>4.6476</v>
+        <v>4.5000</v>
       </c>
       <c r="H77" s="4">
-        <v>4.6700</v>
+        <v>4.6000</v>
       </c>
       <c r="I77" s="4">
-        <v>3.9238</v>
+        <v>3.7000</v>
       </c>
       <c r="J77" s="4">
         <v>4.5000</v>
@@ -2961,28 +2961,28 @@
         <v>4.0000</v>
       </c>
       <c r="C78" s="4">
-        <v>4.0412</v>
+        <v>4.0000</v>
       </c>
       <c r="D78" s="4">
-        <v>4.1412</v>
+        <v>4.2000</v>
       </c>
       <c r="E78" s="4">
-        <v>4.2941</v>
+        <v>4.5000</v>
       </c>
       <c r="F78" s="4">
-        <v>4.1235</v>
+        <v>4.2000</v>
       </c>
       <c r="G78" s="4">
-        <v>4.2824</v>
+        <v>4.3000</v>
       </c>
       <c r="H78" s="4">
-        <v>4.5250</v>
+        <v>4.5000</v>
       </c>
       <c r="I78" s="4">
-        <v>3.8882</v>
+        <v>3.7000</v>
       </c>
       <c r="J78" s="4">
-        <v>4.2882</v>
+        <v>4.2000</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>11</v>
@@ -2996,28 +2996,28 @@
         <v>1.0000</v>
       </c>
       <c r="C79" s="4">
-        <v>3.5667</v>
+        <v>3.6000</v>
       </c>
       <c r="D79" s="4">
-        <v>3.9667</v>
+        <v>3.7000</v>
       </c>
       <c r="E79" s="4">
-        <v>4.1444</v>
+        <v>3.9500</v>
       </c>
       <c r="F79" s="4">
-        <v>4.2778</v>
+        <v>4.0500</v>
       </c>
       <c r="G79" s="4">
-        <v>4.3278</v>
+        <v>4.2000</v>
       </c>
       <c r="H79" s="4">
-        <v>4.7111</v>
+        <v>4.6000</v>
       </c>
       <c r="I79" s="4">
-        <v>4.1222</v>
+        <v>4.0000</v>
       </c>
       <c r="J79" s="4">
-        <v>4.6471</v>
+        <v>4.4000</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>11</v>
@@ -3031,28 +3031,28 @@
         <v>2.0000</v>
       </c>
       <c r="C80" s="4">
-        <v>3.2176</v>
+        <v>3.2000</v>
       </c>
       <c r="D80" s="4">
-        <v>4.2556</v>
+        <v>4.1500</v>
       </c>
       <c r="E80" s="4">
-        <v>4.4278</v>
+        <v>4.3500</v>
       </c>
       <c r="F80" s="4">
-        <v>4.5667</v>
+        <v>4.6000</v>
       </c>
       <c r="G80" s="4">
-        <v>4.7667</v>
+        <v>4.6500</v>
       </c>
       <c r="H80" s="4">
-        <v>4.7833</v>
+        <v>4.7000</v>
       </c>
       <c r="I80" s="4">
-        <v>4.1278</v>
+        <v>4.0000</v>
       </c>
       <c r="J80" s="4">
-        <v>4.9176</v>
+        <v>4.8000</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>11</v>
@@ -3066,28 +3066,28 @@
         <v>3.0000</v>
       </c>
       <c r="C81" s="4">
-        <v>4.6529</v>
+        <v>4.8000</v>
       </c>
       <c r="D81" s="4">
-        <v>4.7176</v>
+        <v>4.8000</v>
       </c>
       <c r="E81" s="4">
         <v>4.9000</v>
       </c>
       <c r="F81" s="4">
-        <v>5.0824</v>
+        <v>5.0000</v>
       </c>
       <c r="G81" s="4">
-        <v>5.1235</v>
+        <v>5.1000</v>
       </c>
       <c r="H81" s="4">
-        <v>5.0353</v>
+        <v>4.9000</v>
       </c>
       <c r="I81" s="4">
-        <v>4.1400</v>
+        <v>4.2000</v>
       </c>
       <c r="J81" s="4">
-        <v>5.0867</v>
+        <v>5.0000</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>11</v>
@@ -3101,28 +3101,28 @@
         <v>4.0000</v>
       </c>
       <c r="C82" s="4">
-        <v>5.0214</v>
+        <v>4.8000</v>
       </c>
       <c r="D82" s="4">
-        <v>4.9571</v>
+        <v>5.0000</v>
       </c>
       <c r="E82" s="4">
-        <v>4.9500</v>
+        <v>4.8500</v>
       </c>
       <c r="F82" s="4">
-        <v>4.9429</v>
+        <v>4.8500</v>
       </c>
       <c r="G82" s="4">
-        <v>4.9286</v>
+        <v>4.9000</v>
       </c>
       <c r="H82" s="4">
-        <v>5.0429</v>
+        <v>5.0000</v>
       </c>
       <c r="I82" s="4">
-        <v>4.2167</v>
+        <v>4.1500</v>
       </c>
       <c r="J82" s="4">
-        <v>5.0250</v>
+        <v>5.0000</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>11</v>
@@ -3136,28 +3136,28 @@
         <v>1.0000</v>
       </c>
       <c r="C83" s="4">
-        <v>4.2687</v>
+        <v>4.3000</v>
       </c>
       <c r="D83" s="4">
-        <v>4.6562</v>
+        <v>4.6000</v>
       </c>
       <c r="E83" s="4">
-        <v>4.8937</v>
+        <v>5.0000</v>
       </c>
       <c r="F83" s="4">
-        <v>5.0125</v>
+        <v>4.8500</v>
       </c>
       <c r="G83" s="4">
-        <v>5.0250</v>
+        <v>4.8500</v>
       </c>
       <c r="H83" s="4">
-        <v>5.0533</v>
+        <v>4.7000</v>
       </c>
       <c r="I83" s="4">
-        <v>4.8267</v>
+        <v>4.8000</v>
       </c>
       <c r="J83" s="4">
-        <v>4.9538</v>
+        <v>4.6000</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>11</v>
@@ -3171,28 +3171,28 @@
         <v>2.0000</v>
       </c>
       <c r="C84" s="4">
-        <v>5.1429</v>
+        <v>5.4000</v>
       </c>
       <c r="D84" s="4">
-        <v>5.8286</v>
+        <v>5.9000</v>
       </c>
       <c r="E84" s="4">
-        <v>5.1571</v>
+        <v>5.0500</v>
       </c>
       <c r="F84" s="4">
-        <v>5.1357</v>
+        <v>5.0000</v>
       </c>
       <c r="G84" s="4">
-        <v>5.0786</v>
+        <v>5.0000</v>
       </c>
       <c r="H84" s="4">
-        <v>4.9923</v>
+        <v>4.6000</v>
       </c>
       <c r="I84" s="4">
-        <v>5.2538</v>
+        <v>5.2000</v>
       </c>
       <c r="J84" s="4">
-        <v>5.1385</v>
+        <v>4.8000</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>11</v>
@@ -3206,28 +3206,28 @@
         <v>3.0000</v>
       </c>
       <c r="C85" s="4">
-        <v>5.8429</v>
+        <v>6.4000</v>
       </c>
       <c r="D85" s="4">
-        <v>4.2000</v>
+        <v>4.3500</v>
       </c>
       <c r="E85" s="4">
-        <v>4.3143</v>
+        <v>4.6000</v>
       </c>
       <c r="F85" s="4">
-        <v>4.3071</v>
+        <v>4.7000</v>
       </c>
       <c r="G85" s="4">
-        <v>4.3071</v>
+        <v>4.6500</v>
       </c>
       <c r="H85" s="4">
-        <v>4.3500</v>
+        <v>4.6500</v>
       </c>
       <c r="I85" s="4">
-        <v>4.7429</v>
+        <v>5.1000</v>
       </c>
       <c r="J85" s="4">
-        <v>4.4286</v>
+        <v>4.6500</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>11</v>
@@ -3241,28 +3241,28 @@
         <v>4.0000</v>
       </c>
       <c r="C86" s="4">
-        <v>3.0267</v>
+        <v>2.6000</v>
       </c>
       <c r="D86" s="4">
-        <v>4.0375</v>
+        <v>4.0000</v>
       </c>
       <c r="E86" s="4">
-        <v>4.1500</v>
+        <v>4.2000</v>
       </c>
       <c r="F86" s="4">
-        <v>4.1250</v>
+        <v>4.2000</v>
       </c>
       <c r="G86" s="4">
-        <v>4.1750</v>
+        <v>4.2000</v>
       </c>
       <c r="H86" s="4">
-        <v>4.2437</v>
+        <v>4.3000</v>
       </c>
       <c r="I86" s="4">
-        <v>4.8687</v>
+        <v>4.8000</v>
       </c>
       <c r="J86" s="4">
-        <v>4.1875</v>
+        <v>4.2000</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>11</v>
@@ -3279,25 +3279,25 @@
         <v>4.0000</v>
       </c>
       <c r="D87" s="4">
-        <v>4.8692</v>
+        <v>4.9000</v>
       </c>
       <c r="E87" s="4">
-        <v>4.3154</v>
+        <v>4.3000</v>
       </c>
       <c r="F87" s="4">
-        <v>4.3615</v>
+        <v>4.2000</v>
       </c>
       <c r="G87" s="4">
-        <v>4.5462</v>
+        <v>4.4000</v>
       </c>
       <c r="H87" s="4">
-        <v>4.6154</v>
+        <v>4.5000</v>
       </c>
       <c r="I87" s="4">
-        <v>4.5769</v>
+        <v>4.8000</v>
       </c>
       <c r="J87" s="4">
-        <v>4.4538</v>
+        <v>4.3000</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>11</v>
@@ -3311,28 +3311,28 @@
         <v>2.0000</v>
       </c>
       <c r="C88" s="4">
-        <v>7.0422</v>
+        <v>8.1000</v>
       </c>
       <c r="D88" s="4">
-        <v>4.0433</v>
+        <v>4.0000</v>
       </c>
       <c r="E88" s="4">
-        <v>3.9633</v>
+        <v>4.0000</v>
       </c>
       <c r="F88" s="4">
-        <v>3.9311</v>
+        <v>4.0000</v>
       </c>
       <c r="G88" s="4">
-        <v>4.2044</v>
+        <v>4.5000</v>
       </c>
       <c r="H88" s="4">
-        <v>4.4878</v>
+        <v>4.3000</v>
       </c>
       <c r="I88" s="4">
-        <v>4.9644</v>
+        <v>5.0000</v>
       </c>
       <c r="J88" s="4">
-        <v>4.5562</v>
+        <v>4.4000</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>11</v>
@@ -3346,28 +3346,28 @@
         <v>3.0000</v>
       </c>
       <c r="C89" s="4">
-        <v>3.6738</v>
+        <v>3.8000</v>
       </c>
       <c r="D89" s="4">
-        <v>5.5538</v>
+        <v>5.7000</v>
       </c>
       <c r="E89" s="4">
-        <v>4.6762</v>
+        <v>5.0000</v>
       </c>
       <c r="F89" s="4">
-        <v>4.4469</v>
+        <v>4.5000</v>
       </c>
       <c r="G89" s="4">
-        <v>3.8708</v>
+        <v>4.1000</v>
       </c>
       <c r="H89" s="4">
-        <v>4.0158</v>
+        <v>4.2000</v>
       </c>
       <c r="I89" s="4">
-        <v>5.2938</v>
+        <v>5.4000</v>
       </c>
       <c r="J89" s="4">
-        <v>4.4823</v>
+        <v>4.6500</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>11</v>
@@ -3381,28 +3381,28 @@
         <v>4.0000</v>
       </c>
       <c r="C90" s="4">
-        <v>6.4267</v>
+        <v>6.4000</v>
       </c>
       <c r="D90" s="4">
-        <v>7.5967</v>
+        <v>7.7000</v>
       </c>
       <c r="E90" s="4">
-        <v>5.3467</v>
+        <v>5.3500</v>
       </c>
       <c r="F90" s="4">
-        <v>4.2900</v>
+        <v>4.2000</v>
       </c>
       <c r="G90" s="4">
-        <v>4.3167</v>
+        <v>4.1500</v>
       </c>
       <c r="H90" s="4">
-        <v>4.3233</v>
+        <v>4.3500</v>
       </c>
       <c r="I90" s="4">
-        <v>5.6933</v>
+        <v>5.5000</v>
       </c>
       <c r="J90" s="4">
-        <v>5.2367</v>
+        <v>5.2500</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>11</v>
@@ -3416,28 +3416,28 @@
         <v>1.0000</v>
       </c>
       <c r="C91" s="4">
-        <v>6.8683</v>
+        <v>6.9000</v>
       </c>
       <c r="D91" s="4">
-        <v>3.8646</v>
+        <v>3.9000</v>
       </c>
       <c r="E91" s="4">
-        <v>3.1329</v>
+        <v>3.4500</v>
       </c>
       <c r="F91" s="4">
-        <v>3.5674</v>
+        <v>3.6000</v>
       </c>
       <c r="G91" s="4">
-        <v>3.6603</v>
+        <v>3.7000</v>
       </c>
       <c r="H91" s="4">
-        <v>3.8213</v>
+        <v>3.9000</v>
       </c>
       <c r="I91" s="4">
-        <v>4.2051</v>
+        <v>4.2000</v>
       </c>
       <c r="J91" s="4">
-        <v>3.8069</v>
+        <v>3.8000</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>11</v>
@@ -3451,28 +3451,28 @@
         <v>2.0000</v>
       </c>
       <c r="C92" s="4">
-        <v>3.4532</v>
+        <v>3.5000</v>
       </c>
       <c r="D92" s="4">
-        <v>2.9120</v>
+        <v>2.8000</v>
       </c>
       <c r="E92" s="4">
-        <v>3.6612</v>
+        <v>3.7500</v>
       </c>
       <c r="F92" s="4">
-        <v>3.7827</v>
+        <v>3.8000</v>
       </c>
       <c r="G92" s="4">
-        <v>3.9386</v>
+        <v>4.0000</v>
       </c>
       <c r="H92" s="4">
-        <v>3.8527</v>
+        <v>3.8000</v>
       </c>
       <c r="I92" s="4">
-        <v>4.2058</v>
+        <v>4.3500</v>
       </c>
       <c r="J92" s="4">
-        <v>3.8829</v>
+        <v>3.9000</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>11</v>
@@ -3486,28 +3486,28 @@
         <v>3.0000</v>
       </c>
       <c r="C93" s="4">
-        <v>2.1088</v>
+        <v>2.1000</v>
       </c>
       <c r="D93" s="4">
-        <v>3.2188</v>
+        <v>3.2000</v>
       </c>
       <c r="E93" s="4">
-        <v>3.6252</v>
+        <v>3.6000</v>
       </c>
       <c r="F93" s="4">
-        <v>3.8473</v>
+        <v>3.9000</v>
       </c>
       <c r="G93" s="4">
-        <v>3.7682</v>
+        <v>3.7900</v>
       </c>
       <c r="H93" s="4">
-        <v>3.8853</v>
+        <v>3.8000</v>
       </c>
       <c r="I93" s="4">
-        <v>3.8819</v>
+        <v>4.2000</v>
       </c>
       <c r="J93" s="4">
-        <v>3.6909</v>
+        <v>3.7000</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>11</v>
@@ -3521,28 +3521,28 @@
         <v>4.0000</v>
       </c>
       <c r="C94" s="4">
-        <v>3.0051</v>
+        <v>3.0000</v>
       </c>
       <c r="D94" s="4">
-        <v>3.2385</v>
+        <v>3.2000</v>
       </c>
       <c r="E94" s="4">
-        <v>3.4603</v>
+        <v>3.4000</v>
       </c>
       <c r="F94" s="4">
-        <v>3.4808</v>
+        <v>3.5000</v>
       </c>
       <c r="G94" s="4">
-        <v>3.6692</v>
+        <v>3.6000</v>
       </c>
       <c r="H94" s="4">
-        <v>3.7385</v>
+        <v>3.7000</v>
       </c>
       <c r="I94" s="4">
-        <v>3.8487</v>
+        <v>4.2000</v>
       </c>
       <c r="J94" s="4">
-        <v>3.4313</v>
+        <v>3.5000</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>11</v>
@@ -3556,28 +3556,28 @@
         <v>1.0000</v>
       </c>
       <c r="C95" s="4">
-        <v>3.1897</v>
+        <v>3.2000</v>
       </c>
       <c r="D95" s="4">
-        <v>2.9949</v>
+        <v>3.0000</v>
       </c>
       <c r="E95" s="4">
-        <v>3.0744</v>
+        <v>3.2000</v>
       </c>
       <c r="F95" s="4">
-        <v>3.3410</v>
+        <v>3.4000</v>
       </c>
       <c r="G95" s="4">
-        <v>3.4744</v>
+        <v>3.5000</v>
       </c>
       <c r="H95" s="4">
-        <v>3.5412</v>
+        <v>3.5000</v>
       </c>
       <c r="I95" s="4">
-        <v>3.1562</v>
+        <v>3.1500</v>
       </c>
       <c r="J95" s="4">
-        <v>3.6548</v>
+        <v>3.5000</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>11</v>
@@ -3591,28 +3591,28 @@
         <v>2.0000</v>
       </c>
       <c r="C96" s="4">
-        <v>3.3576</v>
+        <v>3.5000</v>
       </c>
       <c r="D96" s="4">
-        <v>3.1265</v>
+        <v>3.3000</v>
       </c>
       <c r="E96" s="4">
-        <v>3.2565</v>
+        <v>3.3500</v>
       </c>
       <c r="F96" s="4">
-        <v>3.4956</v>
+        <v>3.5000</v>
       </c>
       <c r="G96" s="4">
-        <v>3.6791</v>
+        <v>3.5500</v>
       </c>
       <c r="H96" s="4">
-        <v>3.8637</v>
+        <v>3.7000</v>
       </c>
       <c r="I96" s="4">
-        <v>3.2285</v>
+        <v>3.1500</v>
       </c>
       <c r="J96" s="4">
-        <v>3.6922</v>
+        <v>3.6000</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>11</v>
@@ -3626,28 +3626,28 @@
         <v>3.0000</v>
       </c>
       <c r="C97" s="4">
-        <v>2.7571</v>
+        <v>2.6000</v>
       </c>
       <c r="D97" s="4">
-        <v>3.0486</v>
+        <v>3.0000</v>
       </c>
       <c r="E97" s="4">
-        <v>3.2686</v>
+        <v>3.3000</v>
       </c>
       <c r="F97" s="4">
-        <v>3.2600</v>
+        <v>3.2000</v>
       </c>
       <c r="G97" s="4">
-        <v>3.3400</v>
+        <v>3.4000</v>
       </c>
       <c r="H97" s="4">
-        <v>3.4286</v>
+        <v>3.4000</v>
       </c>
       <c r="I97" s="4">
-        <v>3.0971</v>
+        <v>3.1000</v>
       </c>
       <c r="J97" s="4">
-        <v>3.3354</v>
+        <v>3.4000</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>11</v>
@@ -3664,25 +3664,25 @@
         <v>2.6000</v>
       </c>
       <c r="D98" s="4">
-        <v>3.1308</v>
+        <v>3.1000</v>
       </c>
       <c r="E98" s="4">
-        <v>3.1590</v>
+        <v>3.1000</v>
       </c>
       <c r="F98" s="4">
-        <v>3.2590</v>
+        <v>3.2000</v>
       </c>
       <c r="G98" s="4">
-        <v>3.3641</v>
+        <v>3.3000</v>
       </c>
       <c r="H98" s="4">
-        <v>3.4205</v>
+        <v>3.4000</v>
       </c>
       <c r="I98" s="4">
-        <v>3.0395</v>
+        <v>3.0000</v>
       </c>
       <c r="J98" s="4">
-        <v>3.2395</v>
+        <v>3.2000</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>11</v>
@@ -3696,28 +3696,28 @@
         <v>1.0000</v>
       </c>
       <c r="C99" s="4">
-        <v>2.9219</v>
+        <v>2.9000</v>
       </c>
       <c r="D99" s="4">
-        <v>3.0281</v>
+        <v>3.0000</v>
       </c>
       <c r="E99" s="4">
         <v>3.1000</v>
       </c>
       <c r="F99" s="4">
-        <v>3.2906</v>
+        <v>3.2500</v>
       </c>
       <c r="G99" s="4">
-        <v>3.3031</v>
+        <v>3.2000</v>
       </c>
       <c r="H99" s="4">
-        <v>3.4486</v>
+        <v>3.3000</v>
       </c>
       <c r="I99" s="4">
-        <v>3.1297</v>
+        <v>3.0500</v>
       </c>
       <c r="J99" s="4">
-        <v>3.4679</v>
+        <v>3.4000</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>11</v>
@@ -3731,28 +3731,28 @@
         <v>2.0000</v>
       </c>
       <c r="C100" s="4">
-        <v>3.9514</v>
+        <v>4.0000</v>
       </c>
       <c r="D100" s="4">
-        <v>3.3143</v>
+        <v>3.2000</v>
       </c>
       <c r="E100" s="4">
-        <v>3.2457</v>
+        <v>3.2000</v>
       </c>
       <c r="F100" s="4">
-        <v>3.3543</v>
+        <v>3.3000</v>
       </c>
       <c r="G100" s="4">
-        <v>3.6125</v>
+        <v>3.5000</v>
       </c>
       <c r="H100" s="4">
-        <v>3.5875</v>
+        <v>3.5000</v>
       </c>
       <c r="I100" s="4">
-        <v>3.3914</v>
+        <v>3.3000</v>
       </c>
       <c r="J100" s="4">
-        <v>3.5187</v>
+        <v>3.4000</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>11</v>
@@ -3769,25 +3769,25 @@
         <v>2.2000</v>
       </c>
       <c r="D101" s="4">
-        <v>2.6276</v>
+        <v>2.6500</v>
       </c>
       <c r="E101" s="4">
-        <v>3.2918</v>
+        <v>3.3000</v>
       </c>
       <c r="F101" s="4">
-        <v>3.3236</v>
+        <v>3.3000</v>
       </c>
       <c r="G101" s="4">
-        <v>3.3342</v>
+        <v>3.3000</v>
       </c>
       <c r="H101" s="4">
-        <v>3.3365</v>
+        <v>3.3000</v>
       </c>
       <c r="I101" s="4">
-        <v>3.1043</v>
+        <v>3.1000</v>
       </c>
       <c r="J101" s="4">
-        <v>3.2629</v>
+        <v>3.2000</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>11</v>
@@ -3801,28 +3801,28 @@
         <v>4.0000</v>
       </c>
       <c r="C102" s="4">
-        <v>1.2147</v>
+        <v>1.2000</v>
       </c>
       <c r="D102" s="4">
-        <v>3.0050</v>
+        <v>3.0000</v>
       </c>
       <c r="E102" s="4">
-        <v>3.0850</v>
+        <v>3.0000</v>
       </c>
       <c r="F102" s="4">
-        <v>3.0430</v>
+        <v>3.0200</v>
       </c>
       <c r="G102" s="4">
-        <v>3.0735</v>
+        <v>3.0500</v>
       </c>
       <c r="H102" s="4">
-        <v>3.1582</v>
+        <v>3.0500</v>
       </c>
       <c r="I102" s="4">
-        <v>2.8795</v>
+        <v>2.9000</v>
       </c>
       <c r="J102" s="4">
-        <v>3.0059</v>
+        <v>3.1000</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>11</v>
@@ -3836,28 +3836,28 @@
         <v>1.0000</v>
       </c>
       <c r="C103" s="4">
-        <v>2.8964</v>
+        <v>2.9000</v>
       </c>
       <c r="D103" s="4">
-        <v>2.9554</v>
+        <v>2.9000</v>
       </c>
       <c r="E103" s="4">
-        <v>3.0411</v>
+        <v>3.1000</v>
       </c>
       <c r="F103" s="4">
-        <v>3.1393</v>
+        <v>3.1500</v>
       </c>
       <c r="G103" s="4">
-        <v>3.1821</v>
+        <v>3.2500</v>
       </c>
       <c r="H103" s="4">
-        <v>3.2722</v>
+        <v>3.3000</v>
       </c>
       <c r="I103" s="4">
-        <v>2.9536</v>
+        <v>2.9750</v>
       </c>
       <c r="J103" s="4">
-        <v>3.2040</v>
+        <v>3.1500</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>11</v>
@@ -3874,25 +3874,25 @@
         <v>2.1000</v>
       </c>
       <c r="D104" s="4">
-        <v>3.1618</v>
+        <v>3.1000</v>
       </c>
       <c r="E104" s="4">
-        <v>3.1588</v>
+        <v>3.2000</v>
       </c>
       <c r="F104" s="4">
-        <v>3.3353</v>
+        <v>3.3000</v>
       </c>
       <c r="G104" s="4">
-        <v>3.3758</v>
+        <v>3.3000</v>
       </c>
       <c r="H104" s="4">
-        <v>3.3848</v>
+        <v>3.3000</v>
       </c>
       <c r="I104" s="4">
-        <v>2.8273</v>
+        <v>2.8000</v>
       </c>
       <c r="J104" s="4">
-        <v>3.3371</v>
+        <v>3.2000</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>11</v>
@@ -3906,28 +3906,28 @@
         <v>3.0000</v>
       </c>
       <c r="C105" s="4">
-        <v>2.8172</v>
+        <v>2.8000</v>
       </c>
       <c r="D105" s="4">
-        <v>3.2552</v>
+        <v>3.3000</v>
       </c>
       <c r="E105" s="4">
-        <v>3.3431</v>
+        <v>3.3000</v>
       </c>
       <c r="F105" s="4">
-        <v>3.3328</v>
+        <v>3.3000</v>
       </c>
       <c r="G105" s="4">
-        <v>3.3138</v>
+        <v>3.3000</v>
       </c>
       <c r="H105" s="4">
-        <v>3.4054</v>
+        <v>3.4000</v>
       </c>
       <c r="I105" s="4">
-        <v>2.7838</v>
+        <v>2.8000</v>
       </c>
       <c r="J105" s="4">
-        <v>3.3559</v>
+        <v>3.3000</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>11</v>
@@ -3941,28 +3941,28 @@
         <v>4.0000</v>
       </c>
       <c r="C106" s="4">
-        <v>3.6143</v>
+        <v>3.6000</v>
       </c>
       <c r="D106" s="4">
-        <v>3.2107</v>
+        <v>3.2000</v>
       </c>
       <c r="E106" s="4">
-        <v>3.4357</v>
+        <v>3.5000</v>
       </c>
       <c r="F106" s="4">
-        <v>3.4029</v>
+        <v>3.3500</v>
       </c>
       <c r="G106" s="4">
+        <v>3.4000</v>
+      </c>
+      <c r="H106" s="4">
         <v>3.4500</v>
       </c>
-      <c r="H106" s="4">
-        <v>3.5143</v>
-      </c>
       <c r="I106" s="4">
-        <v>2.8071</v>
+        <v>2.7500</v>
       </c>
       <c r="J106" s="4">
-        <v>3.4429</v>
+        <v>3.4000</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>11</v>
@@ -3976,28 +3976,28 @@
         <v>1.0000</v>
       </c>
       <c r="C107" s="4">
-        <v>2.3071</v>
+        <v>2.3000</v>
       </c>
       <c r="D107" s="4">
-        <v>3.2036</v>
+        <v>3.1500</v>
       </c>
       <c r="E107" s="4">
-        <v>3.2779</v>
+        <v>3.3000</v>
       </c>
       <c r="F107" s="4">
-        <v>3.4161</v>
+        <v>3.3500</v>
       </c>
       <c r="G107" s="4">
-        <v>3.5375</v>
+        <v>3.4500</v>
       </c>
       <c r="H107" s="4">
-        <v>3.5812</v>
+        <v>3.5500</v>
       </c>
       <c r="I107" s="4">
-        <v>3.2189</v>
+        <v>3.1500</v>
       </c>
       <c r="J107" s="4">
-        <v>3.5962</v>
+        <v>3.5500</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>11</v>
@@ -4011,28 +4011,28 @@
         <v>2.0000</v>
       </c>
       <c r="C108" s="4">
-        <v>3.0980</v>
+        <v>3.1000</v>
       </c>
       <c r="D108" s="4">
-        <v>3.4175</v>
+        <v>3.3000</v>
       </c>
       <c r="E108" s="4">
-        <v>3.4198</v>
+        <v>3.5000</v>
       </c>
       <c r="F108" s="4">
-        <v>3.4773</v>
+        <v>3.5000</v>
       </c>
       <c r="G108" s="4">
-        <v>3.5706</v>
+        <v>3.6000</v>
       </c>
       <c r="H108" s="4">
-        <v>3.6078</v>
+        <v>3.5000</v>
       </c>
       <c r="I108" s="4">
-        <v>3.1842</v>
+        <v>3.1500</v>
       </c>
       <c r="J108" s="4">
-        <v>3.5898</v>
+        <v>3.5000</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>11</v>
@@ -4046,28 +4046,28 @@
         <v>3.0000</v>
       </c>
       <c r="C109" s="4">
-        <v>3.3820</v>
+        <v>3.4000</v>
       </c>
       <c r="D109" s="4">
-        <v>2.9143</v>
+        <v>2.9000</v>
       </c>
       <c r="E109" s="4">
-        <v>3.2184</v>
+        <v>3.2000</v>
       </c>
       <c r="F109" s="4">
-        <v>3.3083</v>
+        <v>3.3000</v>
       </c>
       <c r="G109" s="4">
-        <v>3.3604</v>
+        <v>3.3000</v>
       </c>
       <c r="H109" s="4">
-        <v>3.3811</v>
+        <v>3.3000</v>
       </c>
       <c r="I109" s="4">
-        <v>3.0635</v>
+        <v>3.0000</v>
       </c>
       <c r="J109" s="4">
-        <v>3.3143</v>
+        <v>3.2000</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>11</v>
@@ -4081,28 +4081,28 @@
         <v>4.0000</v>
       </c>
       <c r="C110" s="4">
-        <v>2.0111</v>
+        <v>2.0000</v>
       </c>
       <c r="D110" s="4">
-        <v>2.5911</v>
+        <v>2.6000</v>
       </c>
       <c r="E110" s="4">
-        <v>2.9267</v>
+        <v>2.9000</v>
       </c>
       <c r="F110" s="4">
-        <v>2.9389</v>
+        <v>2.9000</v>
       </c>
       <c r="G110" s="4">
-        <v>2.9978</v>
+        <v>3.0000</v>
       </c>
       <c r="H110" s="4">
-        <v>3.0444</v>
+        <v>3.0000</v>
       </c>
       <c r="I110" s="4">
-        <v>2.8422</v>
+        <v>2.8000</v>
       </c>
       <c r="J110" s="4">
-        <v>2.8778</v>
+        <v>2.9000</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>11</v>
@@ -4116,28 +4116,28 @@
         <v>1.0000</v>
       </c>
       <c r="C111" s="4">
-        <v>1.9297</v>
+        <v>1.8000</v>
       </c>
       <c r="D111" s="4">
-        <v>2.7684</v>
+        <v>2.8000</v>
       </c>
       <c r="E111" s="4">
-        <v>2.6549</v>
+        <v>2.7000</v>
       </c>
       <c r="F111" s="4">
-        <v>2.7295</v>
+        <v>2.7000</v>
       </c>
       <c r="G111" s="4">
-        <v>2.7970</v>
+        <v>2.8000</v>
       </c>
       <c r="H111" s="4">
-        <v>2.8406</v>
+        <v>2.9000</v>
       </c>
       <c r="I111" s="4">
-        <v>2.6792</v>
+        <v>2.6500</v>
       </c>
       <c r="J111" s="4">
-        <v>2.8245</v>
+        <v>2.8000</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>11</v>
@@ -4154,25 +4154,25 @@
         <v>3.2000</v>
       </c>
       <c r="D112" s="4">
-        <v>3.4659</v>
+        <v>3.4000</v>
       </c>
       <c r="E112" s="4">
-        <v>2.8122</v>
+        <v>2.8000</v>
       </c>
       <c r="F112" s="4">
-        <v>2.8122</v>
+        <v>2.7000</v>
       </c>
       <c r="G112" s="4">
-        <v>2.9317</v>
+        <v>3.0000</v>
       </c>
       <c r="H112" s="4">
-        <v>3.0073</v>
+        <v>3.0000</v>
       </c>
       <c r="I112" s="4">
-        <v>2.9750</v>
+        <v>2.9000</v>
       </c>
       <c r="J112" s="4">
-        <v>2.9425</v>
+        <v>2.9000</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>11</v>
@@ -4189,25 +4189,25 @@
         <v>3.8000</v>
       </c>
       <c r="D113" s="4">
-        <v>2.7785</v>
+        <v>2.7000</v>
       </c>
       <c r="E113" s="4">
-        <v>2.9698</v>
+        <v>2.9000</v>
       </c>
       <c r="F113" s="4">
-        <v>3.1563</v>
+        <v>3.1000</v>
       </c>
       <c r="G113" s="4">
-        <v>3.1960</v>
+        <v>3.0000</v>
       </c>
       <c r="H113" s="4">
-        <v>3.1746</v>
+        <v>3.0100</v>
       </c>
       <c r="I113" s="4">
-        <v>3.0731</v>
+        <v>3.0000</v>
       </c>
       <c r="J113" s="4">
-        <v>3.1229</v>
+        <v>3.0000</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>11</v>
@@ -4221,28 +4221,28 @@
         <v>4.0000</v>
       </c>
       <c r="C114" s="4">
-        <v>2.3216</v>
+        <v>2.3000</v>
       </c>
       <c r="D114" s="4">
-        <v>2.8919</v>
+        <v>3.0000</v>
       </c>
       <c r="E114" s="4">
-        <v>3.0811</v>
+        <v>3.1000</v>
       </c>
       <c r="F114" s="4">
-        <v>3.0622</v>
+        <v>3.0000</v>
       </c>
       <c r="G114" s="4">
-        <v>3.0351</v>
+        <v>3.0000</v>
       </c>
       <c r="H114" s="4">
-        <v>3.0784</v>
+        <v>3.0000</v>
       </c>
       <c r="I114" s="4">
-        <v>2.9595</v>
+        <v>3.0000</v>
       </c>
       <c r="J114" s="4">
-        <v>3.0338</v>
+        <v>3.0000</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>11</v>
@@ -4256,28 +4256,28 @@
         <v>1.0000</v>
       </c>
       <c r="C115" s="4">
-        <v>3.1892</v>
+        <v>3.2000</v>
       </c>
       <c r="D115" s="4">
-        <v>2.9722</v>
+        <v>3.0000</v>
       </c>
       <c r="E115" s="4">
-        <v>2.9568</v>
+        <v>3.0000</v>
       </c>
       <c r="F115" s="4">
-        <v>3.0162</v>
+        <v>3.0000</v>
       </c>
       <c r="G115" s="4">
-        <v>3.0892</v>
+        <v>3.1000</v>
       </c>
       <c r="H115" s="4">
-        <v>3.1676</v>
+        <v>3.1500</v>
       </c>
       <c r="I115" s="4">
-        <v>3.0135</v>
+        <v>3.0000</v>
       </c>
       <c r="J115" s="4">
-        <v>3.1030</v>
+        <v>3.0000</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>11</v>
@@ -4291,28 +4291,28 @@
         <v>2.0000</v>
       </c>
       <c r="C116" s="4">
-        <v>2.4025</v>
+        <v>2.4000</v>
       </c>
       <c r="D116" s="4">
-        <v>2.3965</v>
+        <v>2.5000</v>
       </c>
       <c r="E116" s="4">
-        <v>2.8592</v>
+        <v>2.8000</v>
       </c>
       <c r="F116" s="4">
-        <v>3.0477</v>
+        <v>3.0000</v>
       </c>
       <c r="G116" s="4">
-        <v>3.0995</v>
+        <v>3.1000</v>
       </c>
       <c r="H116" s="4">
-        <v>3.0974</v>
+        <v>3.1000</v>
       </c>
       <c r="I116" s="4">
-        <v>2.7400</v>
+        <v>2.7000</v>
       </c>
       <c r="J116" s="4">
-        <v>3.0129</v>
+        <v>3.0000</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>11</v>
@@ -4326,28 +4326,28 @@
         <v>3.0000</v>
       </c>
       <c r="C117" s="4">
-        <v>1.0971</v>
+        <v>1.1000</v>
       </c>
       <c r="D117" s="4">
-        <v>2.2266</v>
+        <v>2.2000</v>
       </c>
       <c r="E117" s="4">
-        <v>2.8149</v>
+        <v>2.8000</v>
       </c>
       <c r="F117" s="4">
-        <v>2.7383</v>
+        <v>2.7000</v>
       </c>
       <c r="G117" s="4">
-        <v>2.8746</v>
+        <v>3.0000</v>
       </c>
       <c r="H117" s="4">
-        <v>2.9285</v>
+        <v>2.9000</v>
       </c>
       <c r="I117" s="4">
-        <v>2.2782</v>
+        <v>2.3500</v>
       </c>
       <c r="J117" s="4">
-        <v>2.7765</v>
+        <v>2.7500</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>11</v>
@@ -4364,25 +4364,25 @@
         <v>2.0000</v>
       </c>
       <c r="D118" s="4">
-        <v>2.4832</v>
+        <v>2.5000</v>
       </c>
       <c r="E118" s="4">
-        <v>2.5278</v>
+        <v>2.5000</v>
       </c>
       <c r="F118" s="4">
-        <v>2.5978</v>
+        <v>2.6000</v>
       </c>
       <c r="G118" s="4">
-        <v>2.7208</v>
+        <v>2.7000</v>
       </c>
       <c r="H118" s="4">
-        <v>2.7392</v>
+        <v>2.6000</v>
       </c>
       <c r="I118" s="4">
-        <v>2.1459</v>
+        <v>2.0200</v>
       </c>
       <c r="J118" s="4">
-        <v>2.5938</v>
+        <v>2.6000</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>11</v>
@@ -4396,28 +4396,28 @@
         <v>1.0000</v>
       </c>
       <c r="C119" s="4">
-        <v>2.1065</v>
+        <v>2.1000</v>
       </c>
       <c r="D119" s="4">
-        <v>1.7655</v>
+        <v>1.8300</v>
       </c>
       <c r="E119" s="4">
-        <v>2.0348</v>
+        <v>2.0000</v>
       </c>
       <c r="F119" s="4">
-        <v>2.2519</v>
+        <v>2.3000</v>
       </c>
       <c r="G119" s="4">
-        <v>2.3926</v>
+        <v>2.4000</v>
       </c>
       <c r="H119" s="4">
-        <v>2.4882</v>
+        <v>2.3500</v>
       </c>
       <c r="I119" s="4">
-        <v>2.0997</v>
+        <v>2.1000</v>
       </c>
       <c r="J119" s="4">
-        <v>2.4235</v>
+        <v>2.3000</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>11</v>
@@ -4434,25 +4434,25 @@
         <v>0.5000</v>
       </c>
       <c r="D120" s="4">
-        <v>1.6739</v>
+        <v>1.6000</v>
       </c>
       <c r="E120" s="4">
-        <v>2.2925</v>
+        <v>2.3000</v>
       </c>
       <c r="F120" s="4">
-        <v>2.3761</v>
+        <v>2.4000</v>
       </c>
       <c r="G120" s="4">
-        <v>2.4233</v>
+        <v>2.5000</v>
       </c>
       <c r="H120" s="4">
-        <v>2.4878</v>
+        <v>2.6000</v>
       </c>
       <c r="I120" s="4">
-        <v>1.7039</v>
+        <v>1.7000</v>
       </c>
       <c r="J120" s="4">
-        <v>2.4604</v>
+        <v>2.5000</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>11</v>
@@ -4469,25 +4469,25 @@
         <v>2.0000</v>
       </c>
       <c r="D121" s="4">
-        <v>2.0543</v>
+        <v>2.0000</v>
       </c>
       <c r="E121" s="4">
-        <v>2.3040</v>
+        <v>2.4000</v>
       </c>
       <c r="F121" s="4">
-        <v>2.4000</v>
+        <v>2.5000</v>
       </c>
       <c r="G121" s="4">
-        <v>2.4757</v>
+        <v>2.5000</v>
       </c>
       <c r="H121" s="4">
-        <v>2.5313</v>
+        <v>2.5000</v>
       </c>
       <c r="I121" s="4">
-        <v>1.6930</v>
+        <v>1.7000</v>
       </c>
       <c r="J121" s="4">
-        <v>2.3900</v>
+        <v>2.5000</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>11</v>
@@ -4501,28 +4501,28 @@
         <v>4.0000</v>
       </c>
       <c r="C122" s="4">
-        <v>1.7942</v>
+        <v>1.8000</v>
       </c>
       <c r="D122" s="4">
-        <v>1.9281</v>
+        <v>1.9000</v>
       </c>
       <c r="E122" s="4">
-        <v>2.1466</v>
+        <v>2.1500</v>
       </c>
       <c r="F122" s="4">
-        <v>2.2619</v>
+        <v>2.3000</v>
       </c>
       <c r="G122" s="4">
-        <v>2.3284</v>
+        <v>2.4000</v>
       </c>
       <c r="H122" s="4">
-        <v>2.3787</v>
+        <v>2.4000</v>
       </c>
       <c r="I122" s="4">
-        <v>1.6019</v>
+        <v>1.6000</v>
       </c>
       <c r="J122" s="4">
-        <v>2.2802</v>
+        <v>2.3000</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>11</v>
@@ -4536,28 +4536,28 @@
         <v>1.0000</v>
       </c>
       <c r="C123" s="4">
-        <v>1.9031</v>
+        <v>1.9000</v>
       </c>
       <c r="D123" s="4">
-        <v>1.9319</v>
+        <v>1.9000</v>
       </c>
       <c r="E123" s="4">
-        <v>2.0647</v>
+        <v>2.0000</v>
       </c>
       <c r="F123" s="4">
-        <v>2.1572</v>
+        <v>2.2000</v>
       </c>
       <c r="G123" s="4">
-        <v>2.2622</v>
+        <v>2.2500</v>
       </c>
       <c r="H123" s="4">
-        <v>2.3077</v>
+        <v>2.2500</v>
       </c>
       <c r="I123" s="4">
-        <v>2.0212</v>
+        <v>2.0000</v>
       </c>
       <c r="J123" s="4">
-        <v>2.3143</v>
+        <v>2.2500</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>11</v>
@@ -4574,25 +4574,25 @@
         <v>1.5000</v>
       </c>
       <c r="D124" s="4">
-        <v>2.7220</v>
+        <v>2.7000</v>
       </c>
       <c r="E124" s="4">
-        <v>2.1746</v>
+        <v>2.2000</v>
       </c>
       <c r="F124" s="4">
-        <v>2.2026</v>
+        <v>2.2000</v>
       </c>
       <c r="G124" s="4">
-        <v>2.2180</v>
+        <v>2.2000</v>
       </c>
       <c r="H124" s="4">
-        <v>2.2374</v>
+        <v>2.2000</v>
       </c>
       <c r="I124" s="4">
-        <v>2.0609</v>
+        <v>2.1000</v>
       </c>
       <c r="J124" s="4">
-        <v>2.2822</v>
+        <v>2.3000</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>11</v>
@@ -4606,28 +4606,28 @@
         <v>3.0000</v>
       </c>
       <c r="C125" s="4">
-        <v>3.5167</v>
+        <v>3.5000</v>
       </c>
       <c r="D125" s="4">
-        <v>2.3203</v>
+        <v>2.2000</v>
       </c>
       <c r="E125" s="4">
-        <v>2.4150</v>
+        <v>2.3000</v>
       </c>
       <c r="F125" s="4">
-        <v>2.3453</v>
+        <v>2.3150</v>
       </c>
       <c r="G125" s="4">
-        <v>2.4281</v>
+        <v>2.4000</v>
       </c>
       <c r="H125" s="4">
-        <v>2.4622</v>
+        <v>2.5000</v>
       </c>
       <c r="I125" s="4">
-        <v>2.3697</v>
+        <v>2.3000</v>
       </c>
       <c r="J125" s="4">
-        <v>2.3804</v>
+        <v>2.3650</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>11</v>
@@ -4641,28 +4641,28 @@
         <v>4.0000</v>
       </c>
       <c r="C126" s="4">
-        <v>2.6025</v>
+        <v>2.6000</v>
       </c>
       <c r="D126" s="4">
-        <v>2.6150</v>
+        <v>2.5500</v>
       </c>
       <c r="E126" s="4">
-        <v>2.4475</v>
+        <v>2.5000</v>
       </c>
       <c r="F126" s="4">
-        <v>2.4512</v>
+        <v>2.5000</v>
       </c>
       <c r="G126" s="4">
-        <v>2.4350</v>
+        <v>2.5000</v>
       </c>
       <c r="H126" s="4">
-        <v>2.5175</v>
+        <v>2.6000</v>
       </c>
       <c r="I126" s="4">
-        <v>2.5300</v>
+        <v>2.5000</v>
       </c>
       <c r="J126" s="4">
-        <v>2.4725</v>
+        <v>2.5000</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>11</v>
@@ -4679,25 +4679,25 @@
         <v>2.9000</v>
       </c>
       <c r="D127" s="4">
-        <v>2.5574</v>
+        <v>2.5000</v>
       </c>
       <c r="E127" s="4">
-        <v>2.5044</v>
+        <v>2.4500</v>
       </c>
       <c r="F127" s="4">
-        <v>2.4309</v>
+        <v>2.4000</v>
       </c>
       <c r="G127" s="4">
-        <v>2.4515</v>
+        <v>2.5000</v>
       </c>
       <c r="H127" s="4">
-        <v>2.4433</v>
+        <v>2.5000</v>
       </c>
       <c r="I127" s="4">
-        <v>2.5003</v>
+        <v>2.5000</v>
       </c>
       <c r="J127" s="4">
-        <v>2.5577</v>
+        <v>2.6000</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>11</v>
@@ -4714,25 +4714,25 @@
         <v>4.0000</v>
       </c>
       <c r="D128" s="4">
-        <v>3.3759</v>
+        <v>3.2000</v>
       </c>
       <c r="E128" s="4">
-        <v>2.5784</v>
+        <v>2.5000</v>
       </c>
       <c r="F128" s="4">
-        <v>2.6569</v>
+        <v>2.6000</v>
       </c>
       <c r="G128" s="4">
-        <v>2.7950</v>
+        <v>2.7000</v>
       </c>
       <c r="H128" s="4">
-        <v>2.8547</v>
+        <v>2.6250</v>
       </c>
       <c r="I128" s="4">
-        <v>3.1356</v>
+        <v>3.1000</v>
       </c>
       <c r="J128" s="4">
-        <v>2.7682</v>
+        <v>2.6750</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>11</v>
@@ -4749,25 +4749,25 @@
         <v>3.6000</v>
       </c>
       <c r="D129" s="4">
-        <v>2.8250</v>
+        <v>2.9000</v>
       </c>
       <c r="E129" s="4">
-        <v>2.6964</v>
+        <v>2.7500</v>
       </c>
       <c r="F129" s="4">
-        <v>2.7107</v>
+        <v>2.8000</v>
       </c>
       <c r="G129" s="4">
-        <v>2.5929</v>
+        <v>2.7000</v>
       </c>
       <c r="H129" s="4">
-        <v>2.6222</v>
+        <v>2.6000</v>
       </c>
       <c r="I129" s="4">
-        <v>3.2643</v>
+        <v>3.3000</v>
       </c>
       <c r="J129" s="4">
-        <v>2.6854</v>
+        <v>2.7750</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>11</v>
@@ -4784,25 +4784,25 @@
         <v>3.1000</v>
       </c>
       <c r="D130" s="4">
-        <v>3.0576</v>
+        <v>3.0000</v>
       </c>
       <c r="E130" s="4">
-        <v>2.7939</v>
+        <v>2.8000</v>
       </c>
       <c r="F130" s="4">
-        <v>2.6394</v>
+        <v>2.7000</v>
       </c>
       <c r="G130" s="4">
-        <v>2.5909</v>
+        <v>2.6000</v>
       </c>
       <c r="H130" s="4">
-        <v>2.5848</v>
+        <v>2.6000</v>
       </c>
       <c r="I130" s="4">
-        <v>3.4615</v>
+        <v>3.4000</v>
       </c>
       <c r="J130" s="4">
-        <v>2.6788</v>
+        <v>2.7000</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>11</v>
@@ -4816,28 +4816,28 @@
         <v>1.0000</v>
       </c>
       <c r="C131" s="4">
-        <v>2.7030</v>
+        <v>2.7000</v>
       </c>
       <c r="D131" s="4">
-        <v>2.6061</v>
+        <v>2.7000</v>
       </c>
       <c r="E131" s="4">
-        <v>2.4667</v>
+        <v>2.5000</v>
       </c>
       <c r="F131" s="4">
-        <v>2.4364</v>
+        <v>2.5000</v>
       </c>
       <c r="G131" s="4">
-        <v>2.4879</v>
+        <v>2.4000</v>
       </c>
       <c r="H131" s="4">
-        <v>2.5281</v>
+        <v>2.5500</v>
       </c>
       <c r="I131" s="4">
-        <v>2.5182</v>
+        <v>2.4000</v>
       </c>
       <c r="J131" s="4">
-        <v>2.4762</v>
+        <v>2.4000</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>11</v>
@@ -4854,25 +4854,25 @@
         <v>4.2000</v>
       </c>
       <c r="D132" s="4">
-        <v>2.9067</v>
+        <v>3.0500</v>
       </c>
       <c r="E132" s="4">
-        <v>2.4933</v>
+        <v>2.5000</v>
       </c>
       <c r="F132" s="4">
-        <v>2.4133</v>
+        <v>2.5000</v>
       </c>
       <c r="G132" s="4">
-        <v>2.5833</v>
+        <v>2.5500</v>
       </c>
       <c r="H132" s="4">
-        <v>2.4733</v>
+        <v>2.5000</v>
       </c>
       <c r="I132" s="4">
-        <v>2.9710</v>
+        <v>3.0000</v>
       </c>
       <c r="J132" s="4">
-        <v>2.6333</v>
+        <v>2.5000</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>11</v>
@@ -4889,25 +4889,25 @@
         <v>3.1000</v>
       </c>
       <c r="D133" s="4">
-        <v>2.2939</v>
+        <v>2.4000</v>
       </c>
       <c r="E133" s="4">
-        <v>2.4242</v>
+        <v>2.5000</v>
       </c>
       <c r="F133" s="4">
-        <v>2.5697</v>
+        <v>2.6000</v>
       </c>
       <c r="G133" s="4">
-        <v>2.6121</v>
+        <v>2.6000</v>
       </c>
       <c r="H133" s="4">
-        <v>2.6333</v>
+        <v>2.7000</v>
       </c>
       <c r="I133" s="4">
-        <v>3.0242</v>
+        <v>3.0000</v>
       </c>
       <c r="J133" s="4">
-        <v>2.6387</v>
+        <v>2.7000</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>11</v>
@@ -4924,25 +4924,25 @@
         <v>0.7000</v>
       </c>
       <c r="D134" s="4">
-        <v>1.5621</v>
+        <v>1.6000</v>
       </c>
       <c r="E134" s="4">
-        <v>2.0172</v>
+        <v>1.9000</v>
       </c>
       <c r="F134" s="4">
-        <v>2.0552</v>
+        <v>2.1000</v>
       </c>
       <c r="G134" s="4">
-        <v>2.1429</v>
+        <v>2.1500</v>
       </c>
       <c r="H134" s="4">
-        <v>2.3643</v>
+        <v>2.4500</v>
       </c>
       <c r="I134" s="4">
-        <v>2.3752</v>
+        <v>2.4000</v>
       </c>
       <c r="J134" s="4">
-        <v>2.1448</v>
+        <v>2.2000</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>11</v>
@@ -4959,25 +4959,25 @@
         <v>-0.4000</v>
       </c>
       <c r="D135" s="4">
-        <v>1.4026</v>
+        <v>1.4000</v>
       </c>
       <c r="E135" s="4">
-        <v>1.9949</v>
+        <v>2.0000</v>
       </c>
       <c r="F135" s="4">
-        <v>2.1174</v>
+        <v>2.1000</v>
       </c>
       <c r="G135" s="4">
-        <v>2.2847</v>
+        <v>2.3000</v>
       </c>
       <c r="H135" s="4">
-        <v>2.3640</v>
+        <v>2.4000</v>
       </c>
       <c r="I135" s="4">
-        <v>1.9404</v>
+        <v>1.9700</v>
       </c>
       <c r="J135" s="4">
-        <v>2.3558</v>
+        <v>2.5000</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>11</v>
@@ -4991,28 +4991,28 @@
         <v>2.0000</v>
       </c>
       <c r="C136" s="4">
-        <v>1.3977</v>
+        <v>1.4000</v>
       </c>
       <c r="D136" s="4">
-        <v>2.9612</v>
+        <v>3.0000</v>
       </c>
       <c r="E136" s="4">
-        <v>2.1664</v>
+        <v>2.2000</v>
       </c>
       <c r="F136" s="4">
-        <v>2.2035</v>
+        <v>2.2000</v>
       </c>
       <c r="G136" s="4">
-        <v>2.4420</v>
+        <v>2.5000</v>
       </c>
       <c r="H136" s="4">
-        <v>2.4976</v>
+        <v>2.5000</v>
       </c>
       <c r="I136" s="4">
-        <v>2.1775</v>
+        <v>2.1700</v>
       </c>
       <c r="J136" s="4">
-        <v>2.5436</v>
+        <v>2.5500</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>11</v>
@@ -5029,25 +5029,25 @@
         <v>3.4000</v>
       </c>
       <c r="D137" s="4">
-        <v>2.1529</v>
+        <v>2.0000</v>
       </c>
       <c r="E137" s="4">
-        <v>2.1588</v>
+        <v>2.1000</v>
       </c>
       <c r="F137" s="4">
-        <v>2.3176</v>
+        <v>2.2500</v>
       </c>
       <c r="G137" s="4">
-        <v>2.3529</v>
+        <v>2.4000</v>
       </c>
       <c r="H137" s="4">
-        <v>2.3758</v>
+        <v>2.4000</v>
       </c>
       <c r="I137" s="4">
-        <v>2.2682</v>
+        <v>2.3000</v>
       </c>
       <c r="J137" s="4">
-        <v>2.3089</v>
+        <v>2.2600</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>11</v>
@@ -5064,25 +5064,25 @@
         <v>1.9000</v>
       </c>
       <c r="D138" s="4">
-        <v>2.1844</v>
+        <v>2.3000</v>
       </c>
       <c r="E138" s="4">
-        <v>2.2422</v>
+        <v>2.2000</v>
       </c>
       <c r="F138" s="4">
-        <v>2.1044</v>
+        <v>2.1500</v>
       </c>
       <c r="G138" s="4">
-        <v>2.2250</v>
+        <v>2.2000</v>
       </c>
       <c r="H138" s="4">
-        <v>2.2656</v>
+        <v>2.2000</v>
       </c>
       <c r="I138" s="4">
-        <v>2.2031</v>
+        <v>2.2000</v>
       </c>
       <c r="J138" s="4">
-        <v>2.2047</v>
+        <v>2.2000</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>11</v>
@@ -5099,25 +5099,25 @@
         <v>2.4000</v>
       </c>
       <c r="D139" s="4">
-        <v>2.5076</v>
+        <v>2.5000</v>
       </c>
       <c r="E139" s="4">
-        <v>1.9832</v>
+        <v>2.1000</v>
       </c>
       <c r="F139" s="4">
-        <v>1.8922</v>
+        <v>2.0000</v>
       </c>
       <c r="G139" s="4">
-        <v>2.2162</v>
+        <v>2.2000</v>
       </c>
       <c r="H139" s="4">
-        <v>2.2486</v>
+        <v>2.2000</v>
       </c>
       <c r="I139" s="4">
-        <v>2.1508</v>
+        <v>2.2000</v>
       </c>
       <c r="J139" s="4">
-        <v>2.3726</v>
+        <v>2.4000</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>11</v>
@@ -5131,28 +5131,28 @@
         <v>2.0000</v>
       </c>
       <c r="C140" s="4">
-        <v>3.8969</v>
+        <v>3.9000</v>
       </c>
       <c r="D140" s="4">
-        <v>1.8187</v>
+        <v>2.0000</v>
       </c>
       <c r="E140" s="4">
-        <v>1.6416</v>
+        <v>1.8150</v>
       </c>
       <c r="F140" s="4">
-        <v>1.9597</v>
+        <v>2.0550</v>
       </c>
       <c r="G140" s="4">
-        <v>2.1447</v>
+        <v>2.2000</v>
       </c>
       <c r="H140" s="4">
-        <v>2.1972</v>
+        <v>2.3000</v>
       </c>
       <c r="I140" s="4">
-        <v>2.2953</v>
+        <v>2.4000</v>
       </c>
       <c r="J140" s="4">
-        <v>2.2323</v>
+        <v>2.3000</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>11</v>
@@ -5166,28 +5166,28 @@
         <v>3.0000</v>
       </c>
       <c r="C141" s="4">
-        <v>0.6036</v>
+        <v>0.6000</v>
       </c>
       <c r="D141" s="4">
-        <v>1.6500</v>
+        <v>1.5500</v>
       </c>
       <c r="E141" s="4">
-        <v>1.5536</v>
+        <v>1.4000</v>
       </c>
       <c r="F141" s="4">
-        <v>1.9571</v>
+        <v>1.9500</v>
       </c>
       <c r="G141" s="4">
-        <v>1.8821</v>
+        <v>1.9000</v>
       </c>
       <c r="H141" s="4">
-        <v>2.0964</v>
+        <v>2.0500</v>
       </c>
       <c r="I141" s="4">
-        <v>1.9407</v>
+        <v>1.8000</v>
       </c>
       <c r="J141" s="4">
-        <v>2.0619</v>
+        <v>2.0000</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>11</v>
@@ -5201,28 +5201,28 @@
         <v>4.0000</v>
       </c>
       <c r="C142" s="4">
-        <v>2.3030</v>
+        <v>2.3000</v>
       </c>
       <c r="D142" s="4">
-        <v>2.1727</v>
+        <v>2.2000</v>
       </c>
       <c r="E142" s="4">
-        <v>1.8344</v>
+        <v>2.1000</v>
       </c>
       <c r="F142" s="4">
-        <v>1.8515</v>
+        <v>2.0000</v>
       </c>
       <c r="G142" s="4">
-        <v>2.0606</v>
+        <v>2.2000</v>
       </c>
       <c r="H142" s="4">
-        <v>2.0485</v>
+        <v>2.2000</v>
       </c>
       <c r="I142" s="4">
-        <v>2.2412</v>
+        <v>2.2200</v>
       </c>
       <c r="J142" s="4">
-        <v>1.9391</v>
+        <v>2.1000</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>11</v>
@@ -5236,28 +5236,28 @@
         <v>1.0000</v>
       </c>
       <c r="C143" s="4">
-        <v>0.8990</v>
+        <v>0.9000</v>
       </c>
       <c r="D143" s="4">
-        <v>1.6874</v>
+        <v>1.7000</v>
       </c>
       <c r="E143" s="4">
-        <v>1.5323</v>
+        <v>1.5000</v>
       </c>
       <c r="F143" s="4">
-        <v>1.5874</v>
+        <v>1.5000</v>
       </c>
       <c r="G143" s="4">
-        <v>1.7974</v>
+        <v>1.7100</v>
       </c>
       <c r="H143" s="4">
-        <v>1.8470</v>
+        <v>1.8000</v>
       </c>
       <c r="I143" s="4">
-        <v>1.6616</v>
+        <v>1.6000</v>
       </c>
       <c r="J143" s="4">
-        <v>1.9285</v>
+        <v>1.9000</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>11</v>
@@ -5271,28 +5271,28 @@
         <v>2.0000</v>
       </c>
       <c r="C144" s="4">
-        <v>3.5988</v>
+        <v>3.6000</v>
       </c>
       <c r="D144" s="4">
-        <v>2.7976</v>
+        <v>2.9000</v>
       </c>
       <c r="E144" s="4">
-        <v>2.0719</v>
+        <v>2.2000</v>
       </c>
       <c r="F144" s="4">
-        <v>2.1330</v>
+        <v>2.0000</v>
       </c>
       <c r="G144" s="4">
-        <v>2.1434</v>
+        <v>2.1275</v>
       </c>
       <c r="H144" s="4">
-        <v>2.1765</v>
+        <v>2.2000</v>
       </c>
       <c r="I144" s="4">
-        <v>2.6333</v>
+        <v>2.7000</v>
       </c>
       <c r="J144" s="4">
-        <v>2.2185</v>
+        <v>2.2000</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>11</v>
@@ -5306,28 +5306,28 @@
         <v>3.0000</v>
       </c>
       <c r="C145" s="4">
-        <v>4.7010</v>
+        <v>4.7000</v>
       </c>
       <c r="D145" s="4">
-        <v>3.1543</v>
+        <v>3.0000</v>
       </c>
       <c r="E145" s="4">
-        <v>2.4694</v>
+        <v>2.3000</v>
       </c>
       <c r="F145" s="4">
-        <v>2.4190</v>
+        <v>2.3000</v>
       </c>
       <c r="G145" s="4">
-        <v>2.3953</v>
+        <v>2.3000</v>
       </c>
       <c r="H145" s="4">
-        <v>2.3797</v>
+        <v>2.3000</v>
       </c>
       <c r="I145" s="4">
-        <v>3.4839</v>
+        <v>3.4000</v>
       </c>
       <c r="J145" s="4">
-        <v>2.1231</v>
+        <v>2.1050</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>11</v>
@@ -5341,28 +5341,28 @@
         <v>4.0000</v>
       </c>
       <c r="C146" s="4">
-        <v>1.8985</v>
+        <v>1.9000</v>
       </c>
       <c r="D146" s="4">
-        <v>2.5473</v>
+        <v>2.5500</v>
       </c>
       <c r="E146" s="4">
-        <v>2.3501</v>
+        <v>2.3000</v>
       </c>
       <c r="F146" s="4">
-        <v>2.3119</v>
+        <v>2.2000</v>
       </c>
       <c r="G146" s="4">
-        <v>2.1919</v>
+        <v>2.2440</v>
       </c>
       <c r="H146" s="4">
-        <v>2.3878</v>
+        <v>2.3080</v>
       </c>
       <c r="I146" s="4">
-        <v>3.1856</v>
+        <v>3.2000</v>
       </c>
       <c r="J146" s="4">
-        <v>2.3083</v>
+        <v>2.2000</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>11</v>
@@ -5376,28 +5376,28 @@
         <v>1.0000</v>
       </c>
       <c r="C147" s="4">
-        <v>3.4006</v>
+        <v>3.4000</v>
       </c>
       <c r="D147" s="4">
-        <v>2.2637</v>
+        <v>2.1500</v>
       </c>
       <c r="E147" s="4">
-        <v>2.2019</v>
+        <v>2.2000</v>
       </c>
       <c r="F147" s="4">
-        <v>2.2153</v>
+        <v>2.2000</v>
       </c>
       <c r="G147" s="4">
-        <v>2.3178</v>
+        <v>2.3000</v>
       </c>
       <c r="H147" s="4">
-        <v>2.3039</v>
+        <v>2.3000</v>
       </c>
       <c r="I147" s="4">
-        <v>2.2457</v>
+        <v>2.2500</v>
       </c>
       <c r="J147" s="4">
-        <v>2.3746</v>
+        <v>2.3250</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>11</v>
@@ -5414,25 +5414,25 @@
         <v>2.4000</v>
       </c>
       <c r="D148" s="4">
-        <v>3.3334</v>
+        <v>3.3000</v>
       </c>
       <c r="E148" s="4">
-        <v>2.1718</v>
+        <v>2.3000</v>
       </c>
       <c r="F148" s="4">
-        <v>2.5250</v>
+        <v>2.4000</v>
       </c>
       <c r="G148" s="4">
-        <v>2.2953</v>
+        <v>2.4000</v>
       </c>
       <c r="H148" s="4">
-        <v>2.4669</v>
+        <v>2.4000</v>
       </c>
       <c r="I148" s="4">
-        <v>2.6431</v>
+        <v>2.6000</v>
       </c>
       <c r="J148" s="4">
-        <v>2.4476</v>
+        <v>2.5000</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>11</v>
@@ -5446,31 +5446,31 @@
         <v>3.0000</v>
       </c>
       <c r="C149" s="4">
-        <v>4.1984</v>
+        <v>4.2000</v>
       </c>
       <c r="D149" s="4">
-        <v>2.7713</v>
+        <v>2.8110</v>
       </c>
       <c r="E149" s="4">
-        <v>2.4899</v>
+        <v>2.4490</v>
       </c>
       <c r="F149" s="4">
-        <v>2.4832</v>
+        <v>2.4000</v>
       </c>
       <c r="G149" s="4">
-        <v>2.5499</v>
+        <v>2.5000</v>
       </c>
       <c r="H149" s="4">
-        <v>2.4095</v>
+        <v>2.4000</v>
       </c>
       <c r="I149" s="4">
-        <v>2.9553</v>
+        <v>2.9000</v>
       </c>
       <c r="J149" s="4">
-        <v>2.3787</v>
+        <v>2.4000</v>
       </c>
       <c r="K149" s="4">
-        <v>2.5522</v>
+        <v>2.5000</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
@@ -5481,31 +5481,31 @@
         <v>4.0000</v>
       </c>
       <c r="C150" s="4">
-        <v>5.1004</v>
+        <v>5.1000</v>
       </c>
       <c r="D150" s="4">
-        <v>3.7377</v>
+        <v>3.9000</v>
       </c>
       <c r="E150" s="4">
-        <v>2.5413</v>
+        <v>2.4290</v>
       </c>
       <c r="F150" s="4">
-        <v>2.4066</v>
+        <v>2.3430</v>
       </c>
       <c r="G150" s="4">
-        <v>2.4373</v>
+        <v>2.4000</v>
       </c>
       <c r="H150" s="4">
-        <v>2.4348</v>
+        <v>2.4000</v>
       </c>
       <c r="I150" s="4">
-        <v>3.8356</v>
+        <v>3.9000</v>
       </c>
       <c r="J150" s="4">
-        <v>2.4613</v>
+        <v>2.4000</v>
       </c>
       <c r="K150" s="4">
-        <v>2.5589</v>
+        <v>2.4000</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
@@ -5516,31 +5516,31 @@
         <v>1.0000</v>
       </c>
       <c r="C151" s="4">
-        <v>3.2005</v>
+        <v>3.2000</v>
       </c>
       <c r="D151" s="4">
-        <v>2.2295</v>
+        <v>2.0000</v>
       </c>
       <c r="E151" s="4">
-        <v>2.4103</v>
+        <v>2.5000</v>
       </c>
       <c r="F151" s="4">
-        <v>2.5034</v>
+        <v>2.5000</v>
       </c>
       <c r="G151" s="4">
-        <v>2.5208</v>
+        <v>2.4180</v>
       </c>
       <c r="H151" s="4">
-        <v>2.2870</v>
+        <v>2.3000</v>
       </c>
       <c r="I151" s="4">
-        <v>2.4285</v>
+        <v>2.4000</v>
       </c>
       <c r="J151" s="4">
-        <v>2.4868</v>
+        <v>2.3250</v>
       </c>
       <c r="K151" s="4">
-        <v>2.4829</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
@@ -5551,31 +5551,31 @@
         <v>2.0000</v>
       </c>
       <c r="C152" s="4">
-        <v>2.2022</v>
+        <v>2.2000</v>
       </c>
       <c r="D152" s="4">
-        <v>3.2838</v>
+        <v>3.4000</v>
       </c>
       <c r="E152" s="4">
-        <v>2.6099</v>
+        <v>2.5518</v>
       </c>
       <c r="F152" s="4">
-        <v>2.4860</v>
+        <v>2.4406</v>
       </c>
       <c r="G152" s="4">
-        <v>2.3925</v>
+        <v>2.3038</v>
       </c>
       <c r="H152" s="4">
-        <v>2.3412</v>
+        <v>2.2500</v>
       </c>
       <c r="I152" s="4">
-        <v>2.6548</v>
+        <v>2.6323</v>
       </c>
       <c r="J152" s="4">
-        <v>2.4350</v>
+        <v>2.3750</v>
       </c>
       <c r="K152" s="4">
-        <v>2.3841</v>
+        <v>2.3500</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
@@ -5586,31 +5586,31 @@
         <v>3.0000</v>
       </c>
       <c r="C153" s="4">
-        <v>4.9995</v>
+        <v>5.0000</v>
       </c>
       <c r="D153" s="4">
-        <v>3.3662</v>
+        <v>3.6000</v>
       </c>
       <c r="E153" s="4">
-        <v>2.8193</v>
+        <v>2.7705</v>
       </c>
       <c r="F153" s="4">
-        <v>2.8750</v>
+        <v>2.7000</v>
       </c>
       <c r="G153" s="4">
-        <v>2.7708</v>
+        <v>2.5500</v>
       </c>
       <c r="H153" s="4">
-        <v>2.6130</v>
+        <v>2.4929</v>
       </c>
       <c r="I153" s="4">
-        <v>3.3461</v>
+        <v>3.3400</v>
       </c>
       <c r="J153" s="4">
-        <v>2.6545</v>
+        <v>2.5564</v>
       </c>
       <c r="K153" s="4">
-        <v>2.5166</v>
+        <v>2.5000</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
@@ -5621,31 +5621,31 @@
         <v>4.0000</v>
       </c>
       <c r="C154" s="4">
-        <v>2.9098</v>
+        <v>2.9000</v>
       </c>
       <c r="D154" s="4">
-        <v>0.5234</v>
+        <v>-0.3000</v>
       </c>
       <c r="E154" s="4">
-        <v>2.8029</v>
+        <v>2.8000</v>
       </c>
       <c r="F154" s="4">
-        <v>2.8423</v>
+        <v>2.6493</v>
       </c>
       <c r="G154" s="4">
-        <v>2.5924</v>
+        <v>2.5262</v>
       </c>
       <c r="H154" s="4">
-        <v>2.3537</v>
+        <v>2.4967</v>
       </c>
       <c r="I154" s="4">
-        <v>2.6385</v>
+        <v>2.4000</v>
       </c>
       <c r="J154" s="4">
-        <v>2.6461</v>
+        <v>2.6000</v>
       </c>
       <c r="K154" s="4">
-        <v>2.5611</v>
+        <v>2.5000</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
@@ -5656,31 +5656,31 @@
         <v>1.0000</v>
       </c>
       <c r="C155" s="4">
-        <v>-2.2005</v>
+        <v>-2.2000</v>
       </c>
       <c r="D155" s="4">
-        <v>2.3337</v>
+        <v>2.4178</v>
       </c>
       <c r="E155" s="4">
-        <v>2.6458</v>
+        <v>2.6000</v>
       </c>
       <c r="F155" s="4">
-        <v>2.5367</v>
+        <v>2.5253</v>
       </c>
       <c r="G155" s="4">
-        <v>2.2372</v>
+        <v>2.4000</v>
       </c>
       <c r="H155" s="4">
-        <v>2.3259</v>
+        <v>2.3000</v>
       </c>
       <c r="I155" s="4">
-        <v>2.4463</v>
+        <v>2.4616</v>
       </c>
       <c r="J155" s="4">
-        <v>2.3110</v>
+        <v>2.3350</v>
       </c>
       <c r="K155" s="4">
-        <v>2.2842</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
@@ -5694,28 +5694,28 @@
         <v>3.8000</v>
       </c>
       <c r="D156" s="4">
-        <v>4.0663</v>
+        <v>4.2000</v>
       </c>
       <c r="E156" s="4">
-        <v>2.4810</v>
+        <v>2.5000</v>
       </c>
       <c r="F156" s="4">
-        <v>2.2918</v>
+        <v>2.3099</v>
       </c>
       <c r="G156" s="4">
-        <v>2.5209</v>
+        <v>2.4267</v>
       </c>
       <c r="H156" s="4">
-        <v>2.4619</v>
+        <v>2.5000</v>
       </c>
       <c r="I156" s="4">
-        <v>3.1527</v>
+        <v>3.1809</v>
       </c>
       <c r="J156" s="4">
-        <v>2.4287</v>
+        <v>2.4000</v>
       </c>
       <c r="K156" s="4">
-        <v>2.4421</v>
+        <v>2.4000</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
@@ -5729,28 +5729,28 @@
         <v>6.0000</v>
       </c>
       <c r="D157" s="4">
-        <v>2.3268</v>
+        <v>2.5786</v>
       </c>
       <c r="E157" s="4">
-        <v>1.7592</v>
+        <v>1.9572</v>
       </c>
       <c r="F157" s="4">
-        <v>2.3951</v>
+        <v>2.3123</v>
       </c>
       <c r="G157" s="4">
-        <v>2.5306</v>
+        <v>2.3500</v>
       </c>
       <c r="H157" s="4">
-        <v>2.3247</v>
+        <v>2.2950</v>
       </c>
       <c r="I157" s="4">
-        <v>3.4200</v>
+        <v>3.5628</v>
       </c>
       <c r="J157" s="4">
-        <v>2.3394</v>
+        <v>2.2389</v>
       </c>
       <c r="K157" s="4">
-        <v>2.3299</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
@@ -5761,31 +5761,31 @@
         <v>4.0000</v>
       </c>
       <c r="C158" s="4">
-        <v>1.8994</v>
+        <v>1.9000</v>
       </c>
       <c r="D158" s="4">
-        <v>2.8937</v>
+        <v>3.0000</v>
       </c>
       <c r="E158" s="4">
-        <v>2.8330</v>
+        <v>2.9000</v>
       </c>
       <c r="F158" s="4">
-        <v>2.4307</v>
+        <v>2.4179</v>
       </c>
       <c r="G158" s="4">
-        <v>2.2365</v>
+        <v>2.2500</v>
       </c>
       <c r="H158" s="4">
-        <v>2.1471</v>
+        <v>2.2033</v>
       </c>
       <c r="I158" s="4">
-        <v>3.6215</v>
+        <v>3.6483</v>
       </c>
       <c r="J158" s="4">
-        <v>2.4221</v>
+        <v>2.5000</v>
       </c>
       <c r="K158" s="4">
-        <v>2.4195</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
@@ -5799,28 +5799,28 @@
         <v>4.3000</v>
       </c>
       <c r="D159" s="4">
-        <v>3.2045</v>
+        <v>3.4850</v>
       </c>
       <c r="E159" s="4">
-        <v>2.2647</v>
+        <v>2.4151</v>
       </c>
       <c r="F159" s="4">
-        <v>2.3626</v>
+        <v>2.5000</v>
       </c>
       <c r="G159" s="4">
-        <v>2.2011</v>
+        <v>2.2127</v>
       </c>
       <c r="H159" s="4">
-        <v>2.3780</v>
+        <v>2.4000</v>
       </c>
       <c r="I159" s="4">
-        <v>2.5152</v>
+        <v>2.5000</v>
       </c>
       <c r="J159" s="4">
-        <v>2.2825</v>
+        <v>2.2750</v>
       </c>
       <c r="K159" s="4">
-        <v>2.3816</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
@@ -5834,28 +5834,28 @@
         <v>4.3000</v>
       </c>
       <c r="D160" s="4">
-        <v>3.5086</v>
+        <v>3.5000</v>
       </c>
       <c r="E160" s="4">
-        <v>3.0538</v>
+        <v>3.2000</v>
       </c>
       <c r="F160" s="4">
-        <v>2.4919</v>
+        <v>2.4625</v>
       </c>
       <c r="G160" s="4">
-        <v>2.7149</v>
+        <v>2.6000</v>
       </c>
       <c r="H160" s="4">
-        <v>2.4297</v>
+        <v>2.4000</v>
       </c>
       <c r="I160" s="4">
-        <v>3.3406</v>
+        <v>3.2900</v>
       </c>
       <c r="J160" s="4">
-        <v>2.5261</v>
+        <v>2.4250</v>
       </c>
       <c r="K160" s="4">
-        <v>2.3828</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
@@ -5869,28 +5869,28 @@
         <v>5.0000</v>
       </c>
       <c r="D161" s="4">
-        <v>5.1185</v>
+        <v>5.3000</v>
       </c>
       <c r="E161" s="4">
-        <v>2.6894</v>
+        <v>2.8934</v>
       </c>
       <c r="F161" s="4">
-        <v>2.6152</v>
+        <v>2.6000</v>
       </c>
       <c r="G161" s="4">
-        <v>2.1025</v>
+        <v>2.3000</v>
       </c>
       <c r="H161" s="4">
-        <v>2.4292</v>
+        <v>2.3000</v>
       </c>
       <c r="I161" s="4">
-        <v>4.2562</v>
+        <v>4.3000</v>
       </c>
       <c r="J161" s="4">
-        <v>2.3993</v>
+        <v>2.3800</v>
       </c>
       <c r="K161" s="4">
-        <v>2.4486</v>
+        <v>2.3089</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
@@ -5904,28 +5904,28 @@
         <v>6.7000</v>
       </c>
       <c r="D162" s="4">
-        <v>-2.3165</v>
+        <v>-2.6000</v>
       </c>
       <c r="E162" s="4">
-        <v>0.6043</v>
+        <v>0.8022</v>
       </c>
       <c r="F162" s="4">
-        <v>1.5063</v>
+        <v>1.8000</v>
       </c>
       <c r="G162" s="4">
-        <v>2.3004</v>
+        <v>2.2000</v>
       </c>
       <c r="H162" s="4">
-        <v>2.3452</v>
+        <v>2.2282</v>
       </c>
       <c r="I162" s="4">
-        <v>3.3452</v>
+        <v>3.3674</v>
       </c>
       <c r="J162" s="4">
-        <v>1.6590</v>
+        <v>1.7498</v>
       </c>
       <c r="K162" s="4">
-        <v>2.3497</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
@@ -5939,28 +5939,28 @@
         <v>-9.2000</v>
       </c>
       <c r="D163" s="4">
-        <v>-2.4538</v>
+        <v>-2.7198</v>
       </c>
       <c r="E163" s="4">
-        <v>0.9504</v>
+        <v>0.8175</v>
       </c>
       <c r="F163" s="4">
-        <v>1.8055</v>
+        <v>1.6566</v>
       </c>
       <c r="G163" s="4">
-        <v>1.4712</v>
+        <v>1.8000</v>
       </c>
       <c r="H163" s="4">
-        <v>1.9195</v>
+        <v>1.9500</v>
       </c>
       <c r="I163" s="4">
-        <v>0.2654</v>
+        <v>0.1900</v>
       </c>
       <c r="J163" s="4">
-        <v>1.8919</v>
+        <v>1.9000</v>
       </c>
       <c r="K163" s="4">
-        <v>2.1236</v>
+        <v>2.2500</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
@@ -5971,31 +5971,31 @@
         <v>2.0000</v>
       </c>
       <c r="C164" s="4">
-        <v>-2.3993</v>
+        <v>-2.4000</v>
       </c>
       <c r="D164" s="4">
-        <v>0.9057</v>
+        <v>0.7000</v>
       </c>
       <c r="E164" s="4">
-        <v>1.9377</v>
+        <v>1.6000</v>
       </c>
       <c r="F164" s="4">
-        <v>1.4807</v>
+        <v>1.4782</v>
       </c>
       <c r="G164" s="4">
-        <v>1.7939</v>
+        <v>1.7500</v>
       </c>
       <c r="H164" s="4">
-        <v>1.9788</v>
+        <v>2.0000</v>
       </c>
       <c r="I164" s="4">
-        <v>0.4688</v>
+        <v>0.4000</v>
       </c>
       <c r="J164" s="4">
-        <v>1.7723</v>
+        <v>1.8000</v>
       </c>
       <c r="K164" s="4">
-        <v>2.0133</v>
+        <v>2.2000</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
@@ -6009,28 +6009,28 @@
         <v>1.3000</v>
       </c>
       <c r="D165" s="4">
-        <v>2.2954</v>
+        <v>2.4000</v>
       </c>
       <c r="E165" s="4">
-        <v>1.7011</v>
+        <v>1.6000</v>
       </c>
       <c r="F165" s="4">
-        <v>1.8707</v>
+        <v>1.7091</v>
       </c>
       <c r="G165" s="4">
-        <v>1.7042</v>
+        <v>1.9000</v>
       </c>
       <c r="H165" s="4">
-        <v>2.1095</v>
+        <v>2.0000</v>
       </c>
       <c r="I165" s="4">
-        <v>0.7325</v>
+        <v>0.7000</v>
       </c>
       <c r="J165" s="4">
-        <v>1.8555</v>
+        <v>1.8000</v>
       </c>
       <c r="K165" s="4">
-        <v>2.3230</v>
+        <v>2.2170</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
@@ -6044,28 +6044,28 @@
         <v>3.6000</v>
       </c>
       <c r="D166" s="4">
-        <v>2.2232</v>
+        <v>2.0538</v>
       </c>
       <c r="E166" s="4">
-        <v>1.4197</v>
+        <v>1.5072</v>
       </c>
       <c r="F166" s="4">
-        <v>1.3620</v>
+        <v>1.4500</v>
       </c>
       <c r="G166" s="4">
-        <v>1.8770</v>
+        <v>1.7750</v>
       </c>
       <c r="H166" s="4">
-        <v>1.9292</v>
+        <v>1.8000</v>
       </c>
       <c r="I166" s="4">
-        <v>1.1661</v>
+        <v>1.1301</v>
       </c>
       <c r="J166" s="4">
-        <v>1.6377</v>
+        <v>1.6600</v>
       </c>
       <c r="K166" s="4">
-        <v>2.1389</v>
+        <v>2.1000</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
@@ -6079,28 +6079,28 @@
         <v>3.4000</v>
       </c>
       <c r="D167" s="4">
-        <v>1.9124</v>
+        <v>2.1000</v>
       </c>
       <c r="E167" s="4">
-        <v>1.2285</v>
+        <v>1.4000</v>
       </c>
       <c r="F167" s="4">
-        <v>1.8102</v>
+        <v>1.8000</v>
       </c>
       <c r="G167" s="4">
-        <v>1.8916</v>
+        <v>1.9042</v>
       </c>
       <c r="H167" s="4">
-        <v>2.0451</v>
+        <v>2.0500</v>
       </c>
       <c r="I167" s="4">
-        <v>1.7037</v>
+        <v>1.7000</v>
       </c>
       <c r="J167" s="4">
-        <v>2.0370</v>
+        <v>2.1009</v>
       </c>
       <c r="K167" s="4">
-        <v>2.2617</v>
+        <v>2.3030</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
@@ -6114,28 +6114,28 @@
         <v>1.5000</v>
       </c>
       <c r="D168" s="4">
-        <v>1.2122</v>
+        <v>1.4305</v>
       </c>
       <c r="E168" s="4">
-        <v>1.8485</v>
+        <v>1.8000</v>
       </c>
       <c r="F168" s="4">
-        <v>1.8104</v>
+        <v>1.8000</v>
       </c>
       <c r="G168" s="4">
-        <v>1.9565</v>
+        <v>1.9100</v>
       </c>
       <c r="H168" s="4">
-        <v>1.8926</v>
+        <v>2.0000</v>
       </c>
       <c r="I168" s="4">
-        <v>1.6202</v>
+        <v>1.6000</v>
       </c>
       <c r="J168" s="4">
-        <v>2.0268</v>
+        <v>2.0000</v>
       </c>
       <c r="K168" s="4">
-        <v>2.4422</v>
+        <v>2.3500</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
@@ -6149,28 +6149,28 @@
         <v>-0.7000</v>
       </c>
       <c r="D169" s="4">
-        <v>1.2427</v>
+        <v>1.4000</v>
       </c>
       <c r="E169" s="4">
-        <v>1.6561</v>
+        <v>1.6000</v>
       </c>
       <c r="F169" s="4">
-        <v>1.6837</v>
+        <v>1.7514</v>
       </c>
       <c r="G169" s="4">
-        <v>1.4600</v>
+        <v>1.6000</v>
       </c>
       <c r="H169" s="4">
-        <v>1.9591</v>
+        <v>1.9328</v>
       </c>
       <c r="I169" s="4">
-        <v>0.9308</v>
+        <v>0.9223</v>
       </c>
       <c r="J169" s="4">
-        <v>1.7432</v>
+        <v>1.7911</v>
       </c>
       <c r="K169" s="4">
-        <v>2.0544</v>
+        <v>2.1129</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
@@ -6184,28 +6184,28 @@
         <v>1.5000</v>
       </c>
       <c r="D170" s="4">
-        <v>1.9562</v>
+        <v>1.8778</v>
       </c>
       <c r="E170" s="4">
-        <v>1.6984</v>
+        <v>1.6010</v>
       </c>
       <c r="F170" s="4">
-        <v>1.3725</v>
+        <v>1.2859</v>
       </c>
       <c r="G170" s="4">
-        <v>1.7782</v>
+        <v>1.7500</v>
       </c>
       <c r="H170" s="4">
-        <v>1.8502</v>
+        <v>1.8000</v>
       </c>
       <c r="I170" s="4">
-        <v>1.0352</v>
+        <v>1.0168</v>
       </c>
       <c r="J170" s="4">
-        <v>1.6863</v>
+        <v>1.6172</v>
       </c>
       <c r="K170" s="4">
-        <v>1.9596</v>
+        <v>1.9000</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
@@ -6216,31 +6216,31 @@
         <v>1.0000</v>
       </c>
       <c r="C171" s="4">
-        <v>2.6136</v>
+        <v>2.6000</v>
       </c>
       <c r="D171" s="4">
-        <v>2.4222</v>
+        <v>2.5000</v>
       </c>
       <c r="E171" s="4">
-        <v>1.2525</v>
+        <v>1.3000</v>
       </c>
       <c r="F171" s="4">
-        <v>1.6937</v>
+        <v>1.8000</v>
       </c>
       <c r="G171" s="4">
-        <v>1.7679</v>
+        <v>1.8000</v>
       </c>
       <c r="H171" s="4">
-        <v>2.0725</v>
+        <v>2.0000</v>
       </c>
       <c r="I171" s="4">
-        <v>1.7840</v>
+        <v>1.6905</v>
       </c>
       <c r="J171" s="4">
-        <v>1.9728</v>
+        <v>2.0000</v>
       </c>
       <c r="K171" s="4">
-        <v>2.0362</v>
+        <v>2.1000</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
@@ -6251,31 +6251,31 @@
         <v>2.0000</v>
       </c>
       <c r="C172" s="4">
-        <v>5.2223</v>
+        <v>5.2000</v>
       </c>
       <c r="D172" s="4">
-        <v>3.4248</v>
+        <v>3.5000</v>
       </c>
       <c r="E172" s="4">
-        <v>2.0428</v>
+        <v>2.2000</v>
       </c>
       <c r="F172" s="4">
-        <v>1.9535</v>
+        <v>2.0000</v>
       </c>
       <c r="G172" s="4">
-        <v>2.2765</v>
+        <v>2.2500</v>
       </c>
       <c r="H172" s="4">
-        <v>2.0580</v>
+        <v>2.0717</v>
       </c>
       <c r="I172" s="4">
-        <v>3.1271</v>
+        <v>3.1400</v>
       </c>
       <c r="J172" s="4">
-        <v>2.2173</v>
+        <v>2.1561</v>
       </c>
       <c r="K172" s="4">
-        <v>2.3869</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
@@ -6289,28 +6289,28 @@
         <v>4.1000</v>
       </c>
       <c r="D173" s="4">
-        <v>1.6978</v>
+        <v>1.4704</v>
       </c>
       <c r="E173" s="4">
-        <v>1.8711</v>
+        <v>2.0000</v>
       </c>
       <c r="F173" s="4">
-        <v>2.1094</v>
+        <v>2.0000</v>
       </c>
       <c r="G173" s="4">
-        <v>2.0679</v>
+        <v>2.0500</v>
       </c>
       <c r="H173" s="4">
-        <v>2.2012</v>
+        <v>2.0000</v>
       </c>
       <c r="I173" s="4">
-        <v>3.2212</v>
+        <v>3.2000</v>
       </c>
       <c r="J173" s="4">
-        <v>2.1236</v>
+        <v>2.0000</v>
       </c>
       <c r="K173" s="4">
-        <v>2.2386</v>
+        <v>2.1000</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
@@ -6324,28 +6324,28 @@
         <v>3.1000</v>
       </c>
       <c r="D174" s="4">
-        <v>1.8956</v>
+        <v>2.0400</v>
       </c>
       <c r="E174" s="4">
-        <v>2.1380</v>
+        <v>2.0008</v>
       </c>
       <c r="F174" s="4">
-        <v>1.9499</v>
+        <v>1.9000</v>
       </c>
       <c r="G174" s="4">
-        <v>2.1330</v>
+        <v>2.0000</v>
       </c>
       <c r="H174" s="4">
-        <v>2.0774</v>
+        <v>1.9761</v>
       </c>
       <c r="I174" s="4">
-        <v>3.5610</v>
+        <v>3.6000</v>
       </c>
       <c r="J174" s="4">
-        <v>2.0684</v>
+        <v>1.9133</v>
       </c>
       <c r="K174" s="4">
-        <v>2.2304</v>
+        <v>2.2000</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
@@ -6356,31 +6356,31 @@
         <v>1.0000</v>
       </c>
       <c r="C175" s="4">
-        <v>0.8698</v>
+        <v>0.9000</v>
       </c>
       <c r="D175" s="4">
-        <v>1.9964</v>
+        <v>2.0000</v>
       </c>
       <c r="E175" s="4">
-        <v>1.8825</v>
+        <v>2.0000</v>
       </c>
       <c r="F175" s="4">
-        <v>2.2422</v>
+        <v>2.1000</v>
       </c>
       <c r="G175" s="4">
-        <v>2.1296</v>
+        <v>2.1000</v>
       </c>
       <c r="H175" s="4">
-        <v>2.2275</v>
+        <v>2.1000</v>
       </c>
       <c r="I175" s="4">
-        <v>2.0398</v>
+        <v>2.0000</v>
       </c>
       <c r="J175" s="4">
-        <v>2.2314</v>
+        <v>2.2000</v>
       </c>
       <c r="K175" s="4">
-        <v>2.4451</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
@@ -6391,31 +6391,31 @@
         <v>2.0000</v>
       </c>
       <c r="C176" s="4">
-        <v>2.5408</v>
+        <v>2.5000</v>
       </c>
       <c r="D176" s="4">
-        <v>2.0715</v>
+        <v>2.1000</v>
       </c>
       <c r="E176" s="4">
-        <v>2.1021</v>
+        <v>2.2600</v>
       </c>
       <c r="F176" s="4">
-        <v>2.1219</v>
+        <v>2.1000</v>
       </c>
       <c r="G176" s="4">
-        <v>2.1417</v>
+        <v>2.2000</v>
       </c>
       <c r="H176" s="4">
-        <v>2.0377</v>
+        <v>2.1724</v>
       </c>
       <c r="I176" s="4">
-        <v>2.2123</v>
+        <v>2.2952</v>
       </c>
       <c r="J176" s="4">
-        <v>2.1819</v>
+        <v>2.1000</v>
       </c>
       <c r="K176" s="4">
-        <v>2.4641</v>
+        <v>2.5000</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
@@ -6426,31 +6426,31 @@
         <v>3.0000</v>
       </c>
       <c r="C177" s="4">
-        <v>0.7881</v>
+        <v>0.8000</v>
       </c>
       <c r="D177" s="4">
-        <v>1.6892</v>
+        <v>1.5000</v>
       </c>
       <c r="E177" s="4">
-        <v>2.0640</v>
+        <v>2.0046</v>
       </c>
       <c r="F177" s="4">
-        <v>2.0173</v>
+        <v>2.1000</v>
       </c>
       <c r="G177" s="4">
-        <v>1.9378</v>
+        <v>2.1000</v>
       </c>
       <c r="H177" s="4">
-        <v>2.2001</v>
+        <v>2.2348</v>
       </c>
       <c r="I177" s="4">
-        <v>1.7716</v>
+        <v>1.7750</v>
       </c>
       <c r="J177" s="4">
-        <v>2.0919</v>
+        <v>2.2000</v>
       </c>
       <c r="K177" s="4">
-        <v>2.3230</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
@@ -6461,31 +6461,31 @@
         <v>4.0000</v>
       </c>
       <c r="C178" s="4">
-        <v>2.2833</v>
+        <v>2.3000</v>
       </c>
       <c r="D178" s="4">
-        <v>2.2888</v>
+        <v>2.2896</v>
       </c>
       <c r="E178" s="4">
-        <v>1.9553</v>
+        <v>2.1000</v>
       </c>
       <c r="F178" s="4">
-        <v>2.0493</v>
+        <v>2.2086</v>
       </c>
       <c r="G178" s="4">
-        <v>2.2172</v>
+        <v>2.2000</v>
       </c>
       <c r="H178" s="4">
-        <v>2.3397</v>
+        <v>2.2637</v>
       </c>
       <c r="I178" s="4">
-        <v>1.9460</v>
+        <v>1.9258</v>
       </c>
       <c r="J178" s="4">
-        <v>2.1475</v>
+        <v>2.2000</v>
       </c>
       <c r="K178" s="4">
-        <v>2.3081</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
@@ -6496,31 +6496,31 @@
         <v>1.0000</v>
       </c>
       <c r="C179" s="4">
-        <v>2.0951</v>
+        <v>2.1000</v>
       </c>
       <c r="D179" s="4">
-        <v>1.6958</v>
+        <v>1.8000</v>
       </c>
       <c r="E179" s="4">
-        <v>1.9431</v>
+        <v>2.1000</v>
       </c>
       <c r="F179" s="4">
-        <v>2.1631</v>
+        <v>2.1000</v>
       </c>
       <c r="G179" s="4">
-        <v>2.1942</v>
+        <v>2.1000</v>
       </c>
       <c r="H179" s="4">
-        <v>2.0469</v>
+        <v>2.1000</v>
       </c>
       <c r="I179" s="4">
-        <v>1.9912</v>
+        <v>2.0000</v>
       </c>
       <c r="J179" s="4">
-        <v>2.1968</v>
+        <v>2.2000</v>
       </c>
       <c r="K179" s="4">
-        <v>2.2736</v>
+        <v>2.2500</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
@@ -6531,31 +6531,31 @@
         <v>2.0000</v>
       </c>
       <c r="C180" s="4">
-        <v>1.4098</v>
+        <v>1.4000</v>
       </c>
       <c r="D180" s="4">
-        <v>1.2007</v>
+        <v>1.6000</v>
       </c>
       <c r="E180" s="4">
-        <v>2.1465</v>
+        <v>2.0000</v>
       </c>
       <c r="F180" s="4">
-        <v>2.0187</v>
+        <v>2.0000</v>
       </c>
       <c r="G180" s="4">
-        <v>1.9878</v>
+        <v>2.0000</v>
       </c>
       <c r="H180" s="4">
-        <v>2.1060</v>
+        <v>2.1657</v>
       </c>
       <c r="I180" s="4">
-        <v>1.7004</v>
+        <v>1.7000</v>
       </c>
       <c r="J180" s="4">
-        <v>2.1178</v>
+        <v>2.2000</v>
       </c>
       <c r="K180" s="4">
-        <v>2.2352</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
@@ -6569,28 +6569,28 @@
         <v>0.0000</v>
       </c>
       <c r="D181" s="4">
-        <v>2.1038</v>
+        <v>2.0000</v>
       </c>
       <c r="E181" s="4">
-        <v>1.7175</v>
+        <v>1.7000</v>
       </c>
       <c r="F181" s="4">
-        <v>1.7841</v>
+        <v>1.7510</v>
       </c>
       <c r="G181" s="4">
-        <v>1.8329</v>
+        <v>1.9000</v>
       </c>
       <c r="H181" s="4">
-        <v>2.0276</v>
+        <v>2.1000</v>
       </c>
       <c r="I181" s="4">
-        <v>1.3078</v>
+        <v>1.3556</v>
       </c>
       <c r="J181" s="4">
-        <v>1.9675</v>
+        <v>2.0000</v>
       </c>
       <c r="K181" s="4">
-        <v>2.1681</v>
+        <v>2.2000</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
@@ -6601,31 +6601,31 @@
         <v>4.0000</v>
       </c>
       <c r="C182" s="4">
-        <v>2.5789</v>
+        <v>2.6000</v>
       </c>
       <c r="D182" s="4">
-        <v>1.6425</v>
+        <v>1.6462</v>
       </c>
       <c r="E182" s="4">
-        <v>1.6953</v>
+        <v>1.8000</v>
       </c>
       <c r="F182" s="4">
-        <v>1.8608</v>
+        <v>1.9953</v>
       </c>
       <c r="G182" s="4">
-        <v>2.0951</v>
+        <v>2.0008</v>
       </c>
       <c r="H182" s="4">
-        <v>2.0845</v>
+        <v>2.1400</v>
       </c>
       <c r="I182" s="4">
-        <v>1.4151</v>
+        <v>1.4042</v>
       </c>
       <c r="J182" s="4">
-        <v>1.9373</v>
+        <v>2.0000</v>
       </c>
       <c r="K182" s="4">
-        <v>2.1511</v>
+        <v>2.2250</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
@@ -6636,31 +6636,31 @@
         <v>1.0000</v>
       </c>
       <c r="C183" s="4">
-        <v>0.9069</v>
+        <v>0.9000</v>
       </c>
       <c r="D183" s="4">
-        <v>1.7749</v>
+        <v>1.7000</v>
       </c>
       <c r="E183" s="4">
-        <v>1.6249</v>
+        <v>1.6554</v>
       </c>
       <c r="F183" s="4">
-        <v>2.0155</v>
+        <v>1.9345</v>
       </c>
       <c r="G183" s="4">
-        <v>1.8377</v>
+        <v>1.9628</v>
       </c>
       <c r="H183" s="4">
-        <v>1.9925</v>
+        <v>2.0000</v>
       </c>
       <c r="I183" s="4">
-        <v>1.8092</v>
+        <v>1.8000</v>
       </c>
       <c r="J183" s="4">
-        <v>1.9851</v>
+        <v>2.0000</v>
       </c>
       <c r="K183" s="4">
-        <v>2.1782</v>
+        <v>2.0780</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
@@ -6671,31 +6671,31 @@
         <v>2.0000</v>
       </c>
       <c r="C184" s="4">
-        <v>1.8953</v>
+        <v>1.9000</v>
       </c>
       <c r="D184" s="4">
-        <v>1.9422</v>
+        <v>1.8787</v>
       </c>
       <c r="E184" s="4">
-        <v>1.8569</v>
+        <v>1.9233</v>
       </c>
       <c r="F184" s="4">
-        <v>1.8002</v>
+        <v>1.9000</v>
       </c>
       <c r="G184" s="4">
-        <v>1.9055</v>
+        <v>2.0100</v>
       </c>
       <c r="H184" s="4">
-        <v>1.9226</v>
+        <v>2.0000</v>
       </c>
       <c r="I184" s="4">
-        <v>1.8813</v>
+        <v>1.9000</v>
       </c>
       <c r="J184" s="4">
-        <v>2.0085</v>
+        <v>2.1000</v>
       </c>
       <c r="K184" s="4">
-        <v>2.2122</v>
+        <v>2.1700</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
@@ -6706,31 +6706,31 @@
         <v>3.0000</v>
       </c>
       <c r="C185" s="4">
-        <v>2.9690</v>
+        <v>3.0000</v>
       </c>
       <c r="D185" s="4">
-        <v>2.1435</v>
+        <v>2.2000</v>
       </c>
       <c r="E185" s="4">
-        <v>2.0049</v>
+        <v>2.0361</v>
       </c>
       <c r="F185" s="4">
-        <v>2.0574</v>
+        <v>2.1000</v>
       </c>
       <c r="G185" s="4">
-        <v>2.1237</v>
+        <v>2.1600</v>
       </c>
       <c r="H185" s="4">
-        <v>2.0872</v>
+        <v>2.1000</v>
       </c>
       <c r="I185" s="4">
-        <v>2.2070</v>
+        <v>2.3000</v>
       </c>
       <c r="J185" s="4">
-        <v>2.0876</v>
+        <v>2.1842</v>
       </c>
       <c r="K185" s="4">
-        <v>2.2402</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
@@ -6741,31 +6741,31 @@
         <v>4.0000</v>
       </c>
       <c r="C186" s="4">
-        <v>1.1180</v>
+        <v>1.1000</v>
       </c>
       <c r="D186" s="4">
-        <v>0.8522</v>
+        <v>1.0400</v>
       </c>
       <c r="E186" s="4">
-        <v>1.6868</v>
+        <v>1.8000</v>
       </c>
       <c r="F186" s="4">
-        <v>1.9944</v>
+        <v>1.9000</v>
       </c>
       <c r="G186" s="4">
-        <v>1.9813</v>
+        <v>1.9650</v>
       </c>
       <c r="H186" s="4">
-        <v>1.9486</v>
+        <v>2.0000</v>
       </c>
       <c r="I186" s="4">
-        <v>1.7245</v>
+        <v>1.7721</v>
       </c>
       <c r="J186" s="4">
-        <v>1.9065</v>
+        <v>1.9125</v>
       </c>
       <c r="K186" s="4">
-        <v>2.1276</v>
+        <v>2.1125</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
@@ -6776,31 +6776,31 @@
         <v>1.0000</v>
       </c>
       <c r="C187" s="4">
-        <v>-1.1775</v>
+        <v>-1.2000</v>
       </c>
       <c r="D187" s="4">
-        <v>-1.4252</v>
+        <v>-1.3846</v>
       </c>
       <c r="E187" s="4">
-        <v>1.5309</v>
+        <v>1.6200</v>
       </c>
       <c r="F187" s="4">
-        <v>1.9158</v>
+        <v>1.9000</v>
       </c>
       <c r="G187" s="4">
-        <v>1.9148</v>
+        <v>1.9558</v>
       </c>
       <c r="H187" s="4">
-        <v>2.0229</v>
+        <v>2.1000</v>
       </c>
       <c r="I187" s="4">
-        <v>0.9585</v>
+        <v>1.0954</v>
       </c>
       <c r="J187" s="4">
-        <v>2.1172</v>
+        <v>2.1186</v>
       </c>
       <c r="K187" s="4">
-        <v>2.2395</v>
+        <v>2.2600</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
@@ -6811,31 +6811,31 @@
         <v>2.0000</v>
       </c>
       <c r="C188" s="4">
-        <v>-3.0990</v>
+        <v>-3.1000</v>
       </c>
       <c r="D188" s="4">
-        <v>1.6497</v>
+        <v>1.9000</v>
       </c>
       <c r="E188" s="4">
-        <v>1.9262</v>
+        <v>1.9500</v>
       </c>
       <c r="F188" s="4">
-        <v>1.8949</v>
+        <v>1.9000</v>
       </c>
       <c r="G188" s="4">
-        <v>1.8356</v>
+        <v>1.9425</v>
       </c>
       <c r="H188" s="4">
-        <v>2.1137</v>
+        <v>2.1000</v>
       </c>
       <c r="I188" s="4">
-        <v>0.5791</v>
+        <v>0.7000</v>
       </c>
       <c r="J188" s="4">
-        <v>2.0393</v>
+        <v>2.0822</v>
       </c>
       <c r="K188" s="4">
-        <v>2.2841</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
@@ -6849,28 +6849,28 @@
         <v>3.0000</v>
       </c>
       <c r="D189" s="4">
-        <v>1.8273</v>
+        <v>2.0000</v>
       </c>
       <c r="E189" s="4">
-        <v>1.7448</v>
+        <v>1.7993</v>
       </c>
       <c r="F189" s="4">
-        <v>1.8204</v>
+        <v>2.0000</v>
       </c>
       <c r="G189" s="4">
-        <v>2.1186</v>
+        <v>2.1568</v>
       </c>
       <c r="H189" s="4">
+        <v>2.2130</v>
+      </c>
+      <c r="I189" s="4">
+        <v>0.8000</v>
+      </c>
+      <c r="J189" s="4">
         <v>2.1000</v>
       </c>
-      <c r="I189" s="4">
-        <v>0.8520</v>
-      </c>
-      <c r="J189" s="4">
-        <v>2.0793</v>
-      </c>
       <c r="K189" s="4">
-        <v>2.3314</v>
+        <v>2.2904</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
@@ -6881,31 +6881,31 @@
         <v>4.0000</v>
       </c>
       <c r="C190" s="4">
-        <v>1.5996</v>
+        <v>1.6000</v>
       </c>
       <c r="D190" s="4">
-        <v>0.9270</v>
+        <v>0.8860</v>
       </c>
       <c r="E190" s="4">
-        <v>1.7479</v>
+        <v>1.8022</v>
       </c>
       <c r="F190" s="4">
-        <v>2.0177</v>
+        <v>2.1375</v>
       </c>
       <c r="G190" s="4">
-        <v>2.1752</v>
+        <v>2.0640</v>
       </c>
       <c r="H190" s="4">
-        <v>2.2686</v>
+        <v>2.1706</v>
       </c>
       <c r="I190" s="4">
-        <v>0.5806</v>
+        <v>0.5900</v>
       </c>
       <c r="J190" s="4">
-        <v>2.0483</v>
+        <v>2.0404</v>
       </c>
       <c r="K190" s="4">
-        <v>2.2565</v>
+        <v>2.2595</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
@@ -6916,31 +6916,31 @@
         <v>1.0000</v>
       </c>
       <c r="C191" s="4">
-        <v>0.2014</v>
+        <v>0.2000</v>
       </c>
       <c r="D191" s="4">
-        <v>0.2650</v>
+        <v>0.4000</v>
       </c>
       <c r="E191" s="4">
-        <v>1.6797</v>
+        <v>1.6000</v>
       </c>
       <c r="F191" s="4">
-        <v>2.0628</v>
+        <v>2.1152</v>
       </c>
       <c r="G191" s="4">
-        <v>2.1260</v>
+        <v>2.1000</v>
       </c>
       <c r="H191" s="4">
-        <v>2.0250</v>
+        <v>2.1254</v>
       </c>
       <c r="I191" s="4">
-        <v>1.5294</v>
+        <v>1.5000</v>
       </c>
       <c r="J191" s="4">
-        <v>2.1553</v>
+        <v>2.2000</v>
       </c>
       <c r="K191" s="4">
-        <v>2.1857</v>
+        <v>2.2779</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
@@ -6951,31 +6951,31 @@
         <v>2.0000</v>
       </c>
       <c r="C192" s="4">
-        <v>-0.3009</v>
+        <v>-0.3000</v>
       </c>
       <c r="D192" s="4">
-        <v>1.8512</v>
+        <v>1.9000</v>
       </c>
       <c r="E192" s="4">
-        <v>1.9702</v>
+        <v>2.0029</v>
       </c>
       <c r="F192" s="4">
-        <v>2.1821</v>
+        <v>2.1000</v>
       </c>
       <c r="G192" s="4">
-        <v>2.0529</v>
+        <v>2.0100</v>
       </c>
       <c r="H192" s="4">
-        <v>2.1226</v>
+        <v>2.1166</v>
       </c>
       <c r="I192" s="4">
-        <v>1.4200</v>
+        <v>1.4771</v>
       </c>
       <c r="J192" s="4">
-        <v>2.1282</v>
+        <v>2.1400</v>
       </c>
       <c r="K192" s="4">
-        <v>2.2451</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
@@ -6986,31 +6986,31 @@
         <v>3.0000</v>
       </c>
       <c r="C193" s="4">
-        <v>2.5022</v>
+        <v>2.5000</v>
       </c>
       <c r="D193" s="4">
-        <v>1.8702</v>
+        <v>2.0000</v>
       </c>
       <c r="E193" s="4">
-        <v>2.2205</v>
+        <v>2.2000</v>
       </c>
       <c r="F193" s="4">
-        <v>2.0764</v>
+        <v>2.2000</v>
       </c>
       <c r="G193" s="4">
-        <v>2.1704</v>
+        <v>2.2103</v>
       </c>
       <c r="H193" s="4">
-        <v>2.2101</v>
+        <v>2.3000</v>
       </c>
       <c r="I193" s="4">
-        <v>1.5735</v>
+        <v>1.5800</v>
       </c>
       <c r="J193" s="4">
-        <v>2.2459</v>
+        <v>2.3000</v>
       </c>
       <c r="K193" s="4">
-        <v>2.2909</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
@@ -7021,31 +7021,31 @@
         <v>4.0000</v>
       </c>
       <c r="C194" s="4">
-        <v>1.6074</v>
+        <v>1.6000</v>
       </c>
       <c r="D194" s="4">
-        <v>2.4110</v>
+        <v>2.2069</v>
       </c>
       <c r="E194" s="4">
-        <v>2.1264</v>
+        <v>2.1765</v>
       </c>
       <c r="F194" s="4">
-        <v>2.1752</v>
+        <v>2.2000</v>
       </c>
       <c r="G194" s="4">
-        <v>2.2994</v>
+        <v>2.2200</v>
       </c>
       <c r="H194" s="4">
-        <v>2.2703</v>
+        <v>2.2149</v>
       </c>
       <c r="I194" s="4">
-        <v>1.5511</v>
+        <v>1.5074</v>
       </c>
       <c r="J194" s="4">
-        <v>2.2298</v>
+        <v>2.2000</v>
       </c>
       <c r="K194" s="4">
-        <v>2.2624</v>
+        <v>2.2436</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
@@ -7056,31 +7056,31 @@
         <v>1.0000</v>
       </c>
       <c r="C195" s="4">
-        <v>3.4033</v>
+        <v>3.4000</v>
       </c>
       <c r="D195" s="4">
-        <v>2.6058</v>
+        <v>2.4901</v>
       </c>
       <c r="E195" s="4">
-        <v>2.2232</v>
+        <v>2.2884</v>
       </c>
       <c r="F195" s="4">
-        <v>2.3761</v>
+        <v>2.3000</v>
       </c>
       <c r="G195" s="4">
-        <v>2.4619</v>
+        <v>2.4500</v>
       </c>
       <c r="H195" s="4">
-        <v>2.4568</v>
+        <v>2.4000</v>
       </c>
       <c r="I195" s="4">
-        <v>2.4152</v>
+        <v>2.3727</v>
       </c>
       <c r="J195" s="4">
-        <v>2.4115</v>
+        <v>2.3000</v>
       </c>
       <c r="K195" s="4">
-        <v>2.4852</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
@@ -7094,28 +7094,28 @@
         <v>3.1000</v>
       </c>
       <c r="D196" s="4">
-        <v>1.6077</v>
+        <v>1.5600</v>
       </c>
       <c r="E196" s="4">
-        <v>2.2145</v>
+        <v>2.2000</v>
       </c>
       <c r="F196" s="4">
-        <v>2.3795</v>
+        <v>2.3000</v>
       </c>
       <c r="G196" s="4">
-        <v>2.3795</v>
+        <v>2.4000</v>
       </c>
       <c r="H196" s="4">
-        <v>2.2540</v>
+        <v>2.2000</v>
       </c>
       <c r="I196" s="4">
-        <v>2.3268</v>
+        <v>2.2989</v>
       </c>
       <c r="J196" s="4">
-        <v>2.3622</v>
+        <v>2.3000</v>
       </c>
       <c r="K196" s="4">
-        <v>2.3840</v>
+        <v>2.4000</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
@@ -7126,31 +7126,31 @@
         <v>3.0000</v>
       </c>
       <c r="C197" s="4">
-        <v>-0.2773</v>
+        <v>-0.3000</v>
       </c>
       <c r="D197" s="4">
-        <v>1.6991</v>
+        <v>1.6473</v>
       </c>
       <c r="E197" s="4">
-        <v>2.3016</v>
+        <v>2.3183</v>
       </c>
       <c r="F197" s="4">
-        <v>2.3143</v>
+        <v>2.2000</v>
       </c>
       <c r="G197" s="4">
-        <v>2.1407</v>
+        <v>2.1234</v>
       </c>
       <c r="H197" s="4">
-        <v>2.2375</v>
+        <v>2.1795</v>
       </c>
       <c r="I197" s="4">
-        <v>1.7133</v>
+        <v>1.7000</v>
       </c>
       <c r="J197" s="4">
-        <v>2.1807</v>
+        <v>2.1707</v>
       </c>
       <c r="K197" s="4">
-        <v>2.3011</v>
+        <v>2.2913</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
@@ -7161,31 +7161,31 @@
         <v>4.0000</v>
       </c>
       <c r="C198" s="4">
-        <v>2.0003</v>
+        <v>2.0000</v>
       </c>
       <c r="D198" s="4">
-        <v>2.5963</v>
+        <v>2.3000</v>
       </c>
       <c r="E198" s="4">
-        <v>2.1574</v>
+        <v>2.0700</v>
       </c>
       <c r="F198" s="4">
-        <v>1.9525</v>
+        <v>2.0182</v>
       </c>
       <c r="G198" s="4">
-        <v>2.1485</v>
+        <v>2.1750</v>
       </c>
       <c r="H198" s="4">
-        <v>2.2148</v>
+        <v>2.0998</v>
       </c>
       <c r="I198" s="4">
-        <v>1.8543</v>
+        <v>1.8000</v>
       </c>
       <c r="J198" s="4">
-        <v>2.1325</v>
+        <v>2.1000</v>
       </c>
       <c r="K198" s="4">
-        <v>2.2931</v>
+        <v>2.2597</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
@@ -7196,31 +7196,31 @@
         <v>1.0000</v>
       </c>
       <c r="C199" s="4">
-        <v>3.7011</v>
+        <v>3.7000</v>
       </c>
       <c r="D199" s="4">
-        <v>2.6113</v>
+        <v>2.7000</v>
       </c>
       <c r="E199" s="4">
-        <v>1.8963</v>
+        <v>2.0200</v>
       </c>
       <c r="F199" s="4">
-        <v>2.2603</v>
+        <v>2.3000</v>
       </c>
       <c r="G199" s="4">
-        <v>2.2852</v>
+        <v>2.2270</v>
       </c>
       <c r="H199" s="4">
-        <v>2.2385</v>
+        <v>2.3000</v>
       </c>
       <c r="I199" s="4">
-        <v>2.2606</v>
+        <v>2.1000</v>
       </c>
       <c r="J199" s="4">
-        <v>2.2581</v>
+        <v>2.1534</v>
       </c>
       <c r="K199" s="4">
-        <v>2.3473</v>
+        <v>2.2577</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
@@ -7231,31 +7231,31 @@
         <v>2.0000</v>
       </c>
       <c r="C200" s="4">
-        <v>3.5005</v>
+        <v>3.5000</v>
       </c>
       <c r="D200" s="4">
-        <v>2.0107</v>
+        <v>1.9060</v>
       </c>
       <c r="E200" s="4">
-        <v>2.3744</v>
+        <v>2.2012</v>
       </c>
       <c r="F200" s="4">
-        <v>2.3478</v>
+        <v>2.2900</v>
       </c>
       <c r="G200" s="4">
-        <v>2.3815</v>
+        <v>2.3000</v>
       </c>
       <c r="H200" s="4">
-        <v>2.2280</v>
+        <v>2.2477</v>
       </c>
       <c r="I200" s="4">
-        <v>2.5540</v>
+        <v>2.4730</v>
       </c>
       <c r="J200" s="4">
-        <v>2.3377</v>
+        <v>2.2000</v>
       </c>
       <c r="K200" s="4">
-        <v>2.3954</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
@@ -7266,31 +7266,31 @@
         <v>3.0000</v>
       </c>
       <c r="C201" s="4">
-        <v>1.6988</v>
+        <v>1.7000</v>
       </c>
       <c r="D201" s="4">
-        <v>2.3445</v>
+        <v>2.3000</v>
       </c>
       <c r="E201" s="4">
-        <v>2.3411</v>
+        <v>2.3000</v>
       </c>
       <c r="F201" s="4">
-        <v>2.3803</v>
+        <v>2.3756</v>
       </c>
       <c r="G201" s="4">
-        <v>2.1255</v>
+        <v>2.0605</v>
       </c>
       <c r="H201" s="4">
-        <v>2.3753</v>
+        <v>2.3000</v>
       </c>
       <c r="I201" s="4">
-        <v>2.4667</v>
+        <v>2.4000</v>
       </c>
       <c r="J201" s="4">
-        <v>2.3334</v>
+        <v>2.3000</v>
       </c>
       <c r="K201" s="4">
-        <v>2.3156</v>
+        <v>2.3369</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
@@ -7301,31 +7301,31 @@
         <v>4.0000</v>
       </c>
       <c r="C202" s="4">
-        <v>1.9996</v>
+        <v>2.0000</v>
       </c>
       <c r="D202" s="4">
-        <v>2.3998</v>
+        <v>2.3363</v>
       </c>
       <c r="E202" s="4">
-        <v>2.4267</v>
+        <v>2.4134</v>
       </c>
       <c r="F202" s="4">
-        <v>2.2212</v>
+        <v>2.3000</v>
       </c>
       <c r="G202" s="4">
-        <v>2.3615</v>
+        <v>2.3500</v>
       </c>
       <c r="H202" s="4">
-        <v>2.3989</v>
+        <v>2.4000</v>
       </c>
       <c r="I202" s="4">
-        <v>2.3944</v>
+        <v>2.3898</v>
       </c>
       <c r="J202" s="4">
-        <v>2.3508</v>
+        <v>2.3500</v>
       </c>
       <c r="K202" s="4">
-        <v>2.2403</v>
+        <v>2.2715</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
@@ -7336,31 +7336,31 @@
         <v>1.0000</v>
       </c>
       <c r="C203" s="4">
-        <v>1.4988</v>
+        <v>1.5000</v>
       </c>
       <c r="D203" s="4">
-        <v>1.2293</v>
+        <v>1.1000</v>
       </c>
       <c r="E203" s="4">
-        <v>2.3051</v>
+        <v>2.3000</v>
       </c>
       <c r="F203" s="4">
-        <v>2.3045</v>
+        <v>2.3073</v>
       </c>
       <c r="G203" s="4">
-        <v>2.2327</v>
+        <v>2.2000</v>
       </c>
       <c r="H203" s="4">
-        <v>2.2369</v>
+        <v>2.2532</v>
       </c>
       <c r="I203" s="4">
-        <v>2.0168</v>
+        <v>2.0349</v>
       </c>
       <c r="J203" s="4">
-        <v>2.1943</v>
+        <v>2.2000</v>
       </c>
       <c r="K203" s="4">
-        <v>2.2371</v>
+        <v>2.2000</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
@@ -7371,31 +7371,31 @@
         <v>2.0000</v>
       </c>
       <c r="C204" s="4">
-        <v>0.8988</v>
+        <v>0.9000</v>
       </c>
       <c r="D204" s="4">
-        <v>2.6688</v>
+        <v>2.4061</v>
       </c>
       <c r="E204" s="4">
-        <v>2.1725</v>
+        <v>2.1239</v>
       </c>
       <c r="F204" s="4">
-        <v>2.1614</v>
+        <v>2.1000</v>
       </c>
       <c r="G204" s="4">
-        <v>2.0741</v>
+        <v>2.1183</v>
       </c>
       <c r="H204" s="4">
-        <v>1.9467</v>
+        <v>2.0000</v>
       </c>
       <c r="I204" s="4">
-        <v>1.9684</v>
+        <v>1.9038</v>
       </c>
       <c r="J204" s="4">
-        <v>2.0863</v>
+        <v>2.0817</v>
       </c>
       <c r="K204" s="4">
-        <v>2.1846</v>
+        <v>2.2000</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
@@ -7406,31 +7406,31 @@
         <v>3.0000</v>
       </c>
       <c r="C205" s="4">
-        <v>2.9016</v>
+        <v>2.9000</v>
       </c>
       <c r="D205" s="4">
-        <v>1.8251</v>
+        <v>1.8800</v>
       </c>
       <c r="E205" s="4">
-        <v>2.1255</v>
+        <v>2.0880</v>
       </c>
       <c r="F205" s="4">
-        <v>2.0822</v>
+        <v>2.0053</v>
       </c>
       <c r="G205" s="4">
-        <v>1.9449</v>
+        <v>2.0000</v>
       </c>
       <c r="H205" s="4">
-        <v>2.1010</v>
+        <v>2.0541</v>
       </c>
       <c r="I205" s="4">
-        <v>1.9318</v>
+        <v>1.9277</v>
       </c>
       <c r="J205" s="4">
-        <v>2.0912</v>
+        <v>2.0382</v>
       </c>
       <c r="K205" s="4">
-        <v>2.1727</v>
+        <v>2.1522</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
@@ -7441,31 +7441,31 @@
         <v>4.0000</v>
       </c>
       <c r="C206" s="4">
-        <v>1.7994</v>
+        <v>1.8000</v>
       </c>
       <c r="D206" s="4">
-        <v>1.8353</v>
+        <v>1.8000</v>
       </c>
       <c r="E206" s="4">
-        <v>2.1766</v>
+        <v>2.2000</v>
       </c>
       <c r="F206" s="4">
-        <v>2.0818</v>
+        <v>2.1000</v>
       </c>
       <c r="G206" s="4">
-        <v>2.1055</v>
+        <v>2.1538</v>
       </c>
       <c r="H206" s="4">
-        <v>2.0970</v>
+        <v>2.1000</v>
       </c>
       <c r="I206" s="4">
-        <v>1.8532</v>
+        <v>1.8300</v>
       </c>
       <c r="J206" s="4">
-        <v>2.1135</v>
+        <v>2.1479</v>
       </c>
       <c r="K206" s="4">
-        <v>2.1872</v>
+        <v>2.1979</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
@@ -7476,31 +7476,31 @@
         <v>1.0000</v>
       </c>
       <c r="C207" s="4">
-        <v>2.5991</v>
+        <v>2.6000</v>
       </c>
       <c r="D207" s="4">
-        <v>1.9158</v>
+        <v>2.0000</v>
       </c>
       <c r="E207" s="4">
-        <v>1.9760</v>
+        <v>2.0000</v>
       </c>
       <c r="F207" s="4">
-        <v>2.1405</v>
+        <v>2.2000</v>
       </c>
       <c r="G207" s="4">
-        <v>2.1770</v>
+        <v>2.2331</v>
       </c>
       <c r="H207" s="4">
-        <v>2.1746</v>
+        <v>2.2000</v>
       </c>
       <c r="I207" s="4">
-        <v>2.0550</v>
+        <v>2.0248</v>
       </c>
       <c r="J207" s="4">
-        <v>2.2150</v>
+        <v>2.2000</v>
       </c>
       <c r="K207" s="4">
-        <v>2.2311</v>
+        <v>2.2500</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
@@ -7511,31 +7511,31 @@
         <v>2.0000</v>
       </c>
       <c r="C208" s="4">
-        <v>1.2004</v>
+        <v>1.2000</v>
       </c>
       <c r="D208" s="4">
-        <v>-2.3937</v>
+        <v>-2.5789</v>
       </c>
       <c r="E208" s="4">
-        <v>1.6179</v>
+        <v>1.5000</v>
       </c>
       <c r="F208" s="4">
-        <v>1.8864</v>
+        <v>1.9370</v>
       </c>
       <c r="G208" s="4">
-        <v>1.9525</v>
+        <v>2.0000</v>
       </c>
       <c r="H208" s="4">
-        <v>1.8858</v>
+        <v>2.0000</v>
       </c>
       <c r="I208" s="4">
-        <v>0.5562</v>
+        <v>0.5231</v>
       </c>
       <c r="J208" s="4">
-        <v>1.8216</v>
+        <v>1.9004</v>
       </c>
       <c r="K208" s="4">
-        <v>2.1429</v>
+        <v>2.2030</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
@@ -7546,31 +7546,31 @@
         <v>3.0000</v>
       </c>
       <c r="C209" s="4">
-        <v>-3.5019</v>
+        <v>-3.5000</v>
       </c>
       <c r="D209" s="4">
-        <v>1.9085</v>
+        <v>2.3365</v>
       </c>
       <c r="E209" s="4">
-        <v>1.5451</v>
+        <v>1.6118</v>
       </c>
       <c r="F209" s="4">
-        <v>1.5453</v>
+        <v>1.7679</v>
       </c>
       <c r="G209" s="4">
-        <v>1.5103</v>
+        <v>1.6000</v>
       </c>
       <c r="H209" s="4">
-        <v>1.8258</v>
+        <v>2.1000</v>
       </c>
       <c r="I209" s="4">
-        <v>0.2560</v>
+        <v>0.4200</v>
       </c>
       <c r="J209" s="4">
-        <v>1.7587</v>
+        <v>1.8285</v>
       </c>
       <c r="K209" s="4">
-        <v>2.0490</v>
+        <v>1.9897</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
@@ -7581,31 +7581,31 @@
         <v>4.0000</v>
       </c>
       <c r="C210" s="4">
-        <v>5.1976</v>
+        <v>5.2000</v>
       </c>
       <c r="D210" s="4">
-        <v>2.1612</v>
+        <v>2.0082</v>
       </c>
       <c r="E210" s="4">
-        <v>2.1139</v>
+        <v>2.0000</v>
       </c>
       <c r="F210" s="4">
-        <v>1.8093</v>
+        <v>2.0000</v>
       </c>
       <c r="G210" s="4">
-        <v>2.1510</v>
+        <v>2.1000</v>
       </c>
       <c r="H210" s="4">
-        <v>2.1778</v>
+        <v>2.1682</v>
       </c>
       <c r="I210" s="4">
-        <v>1.2075</v>
+        <v>1.1804</v>
       </c>
       <c r="J210" s="4">
-        <v>2.0636</v>
+        <v>2.0200</v>
       </c>
       <c r="K210" s="4">
-        <v>2.1020</v>
+        <v>1.9291</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
@@ -7616,31 +7616,31 @@
         <v>1.0000</v>
       </c>
       <c r="C211" s="4">
-        <v>2.2015</v>
+        <v>2.2000</v>
       </c>
       <c r="D211" s="4">
-        <v>2.4848</v>
+        <v>2.4962</v>
       </c>
       <c r="E211" s="4">
-        <v>2.0349</v>
+        <v>2.1321</v>
       </c>
       <c r="F211" s="4">
-        <v>2.1578</v>
+        <v>2.0864</v>
       </c>
       <c r="G211" s="4">
-        <v>2.2153</v>
+        <v>2.2000</v>
       </c>
       <c r="H211" s="4">
-        <v>2.2171</v>
+        <v>2.2000</v>
       </c>
       <c r="I211" s="4">
-        <v>2.2187</v>
+        <v>2.2000</v>
       </c>
       <c r="J211" s="4">
-        <v>2.1804</v>
+        <v>2.2000</v>
       </c>
       <c r="K211" s="4">
-        <v>2.2727</v>
+        <v>2.2061</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
@@ -7651,31 +7651,31 @@
         <v>2.0000</v>
       </c>
       <c r="C212" s="4">
-        <v>3.7027</v>
+        <v>3.7000</v>
       </c>
       <c r="D212" s="4">
-        <v>3.3839</v>
+        <v>3.2000</v>
       </c>
       <c r="E212" s="4">
-        <v>2.6984</v>
+        <v>2.5667</v>
       </c>
       <c r="F212" s="4">
-        <v>2.4069</v>
+        <v>2.3639</v>
       </c>
       <c r="G212" s="4">
-        <v>2.4551</v>
+        <v>2.3000</v>
       </c>
       <c r="H212" s="4">
-        <v>2.2981</v>
+        <v>2.2477</v>
       </c>
       <c r="I212" s="4">
-        <v>3.0494</v>
+        <v>3.0484</v>
       </c>
       <c r="J212" s="4">
-        <v>2.3902</v>
+        <v>2.3250</v>
       </c>
       <c r="K212" s="4">
-        <v>2.4086</v>
+        <v>2.3159</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
@@ -7686,31 +7686,31 @@
         <v>3.0000</v>
       </c>
       <c r="C213" s="4">
-        <v>8.4037</v>
+        <v>8.4000</v>
       </c>
       <c r="D213" s="4">
-        <v>5.0886</v>
+        <v>5.1999</v>
       </c>
       <c r="E213" s="4">
-        <v>2.6664</v>
+        <v>2.6299</v>
       </c>
       <c r="F213" s="4">
-        <v>2.4430</v>
+        <v>2.1750</v>
       </c>
       <c r="G213" s="4">
-        <v>2.3939</v>
+        <v>2.3090</v>
       </c>
       <c r="H213" s="4">
-        <v>2.4739</v>
+        <v>2.4266</v>
       </c>
       <c r="I213" s="4">
-        <v>4.9558</v>
+        <v>4.8963</v>
       </c>
       <c r="J213" s="4">
-        <v>2.5397</v>
+        <v>2.4000</v>
       </c>
       <c r="K213" s="4">
-        <v>2.4597</v>
+        <v>2.3021</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
@@ -7721,31 +7721,31 @@
         <v>4.0000</v>
       </c>
       <c r="C214" s="4">
-        <v>6.6018</v>
+        <v>6.6000</v>
       </c>
       <c r="D214" s="4">
-        <v>4.6157</v>
+        <v>4.6000</v>
       </c>
       <c r="E214" s="4">
-        <v>3.2337</v>
+        <v>3.0012</v>
       </c>
       <c r="F214" s="4">
-        <v>2.7242</v>
+        <v>2.6289</v>
       </c>
       <c r="G214" s="4">
-        <v>2.6236</v>
+        <v>2.4633</v>
       </c>
       <c r="H214" s="4">
-        <v>2.4932</v>
+        <v>2.3663</v>
       </c>
       <c r="I214" s="4">
-        <v>5.8236</v>
+        <v>5.8127</v>
       </c>
       <c r="J214" s="4">
-        <v>2.7679</v>
+        <v>2.7052</v>
       </c>
       <c r="K214" s="4">
-        <v>2.4772</v>
+        <v>2.4000</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
@@ -7756,31 +7756,31 @@
         <v>1.0000</v>
       </c>
       <c r="C215" s="4">
-        <v>8.2024</v>
+        <v>8.2000</v>
       </c>
       <c r="D215" s="4">
-        <v>5.5158</v>
+        <v>5.5000</v>
       </c>
       <c r="E215" s="4">
-        <v>3.6657</v>
+        <v>3.8363</v>
       </c>
       <c r="F215" s="4">
-        <v>3.0589</v>
+        <v>2.7491</v>
       </c>
       <c r="G215" s="4">
-        <v>3.0151</v>
+        <v>2.7245</v>
       </c>
       <c r="H215" s="4">
-        <v>2.8363</v>
+        <v>2.5000</v>
       </c>
       <c r="I215" s="4">
-        <v>3.7886</v>
+        <v>3.7500</v>
       </c>
       <c r="J215" s="4">
-        <v>2.7123</v>
+        <v>2.3703</v>
       </c>
       <c r="K215" s="4">
-        <v>2.5483</v>
+        <v>2.3000</v>
       </c>
     </row>
     <row r="216" ht="13" customHeight="1"/>
